--- a/projects/template_nsga.xlsx
+++ b/projects/template_nsga.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="27640" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19840" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -1968,9 +1968,6 @@
     <t>standard_report_legacy.total_electricity</t>
   </si>
   <si>
-    <t>0.3.3</t>
-  </si>
-  <si>
     <t>Parameter Short Display Name</t>
   </si>
   <si>
@@ -2235,7 +2232,10 @@
     <t>large office</t>
   </si>
   <si>
-    <t>../seeds/11122_LargeOfficeOSM_AirCooledChiller.osm</t>
+    <t>../seeds/large_office_air_cooled_chiller.osm</t>
+  </si>
+  <si>
+    <t>0.3.5</t>
   </si>
 </sst>
 </file>
@@ -2403,8 +2403,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1487">
+  <cellStyleXfs count="1493">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3990,17 +3996,17 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1487">
+  <cellStyles count="1493">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4744,6 +4750,9 @@
     <cellStyle name="Followed Hyperlink" xfId="1482" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1484" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1492" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5487,6 +5496,9 @@
     <cellStyle name="Hyperlink" xfId="1481" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1483" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1491" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5788,8 +5800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5826,8 +5838,8 @@
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>642</v>
+      <c r="B3" s="44" t="s">
+        <v>731</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5849,7 +5861,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>618</v>
@@ -5871,7 +5883,7 @@
         <v>442</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C7" s="24" t="str">
         <f>VLOOKUP($B7,instance_defs,5,FALSE)</f>
@@ -5921,7 +5933,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="24" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E9" s="24" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
@@ -5946,7 +5958,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>473</v>
@@ -5957,7 +5969,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>619</v>
@@ -6257,7 +6269,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" ht="28">
@@ -6283,13 +6295,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>450</v>
@@ -6344,8 +6356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6401,14 +6413,14 @@
       <c r="R1" s="33"/>
       <c r="S1" s="30"/>
       <c r="T1" s="30"/>
-      <c r="U1" s="47" t="s">
+      <c r="U1" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
     </row>
     <row r="2" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A2" s="34" t="s">
@@ -6463,7 +6475,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>11</v>
@@ -6609,7 +6621,7 @@
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>46</v>
@@ -6961,7 +6973,7 @@
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>75</v>
@@ -7047,7 +7059,7 @@
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E17" s="46" t="s">
         <v>258</v>
@@ -7077,7 +7089,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
@@ -7247,7 +7259,7 @@
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E22" s="46" t="s">
         <v>258</v>
@@ -7270,13 +7282,15 @@
       <c r="M22" s="46">
         <v>50</v>
       </c>
-      <c r="N22" s="42"/>
+      <c r="N22" s="42">
+        <v>10</v>
+      </c>
       <c r="O22" s="42"/>
       <c r="P22" s="42" t="s">
+        <v>725</v>
+      </c>
+      <c r="Q22" s="42" t="s">
         <v>726</v>
-      </c>
-      <c r="Q22" s="42" t="s">
-        <v>727</v>
       </c>
       <c r="R22" s="42" t="s">
         <v>24</v>
@@ -7449,7 +7463,7 @@
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E27" s="46" t="s">
         <v>77</v>
@@ -7613,7 +7627,7 @@
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="46" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>77</v>
@@ -7710,7 +7724,7 @@
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>84</v>
@@ -7777,13 +7791,13 @@
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="42" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G35" s="42" t="s">
         <v>64</v>
@@ -7917,7 +7931,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
@@ -7937,26 +7951,26 @@
       <c r="Z38" s="15"/>
     </row>
     <row r="39" spans="1:26" s="28" customFormat="1" ht="15">
-      <c r="A39" s="48" t="b">
+      <c r="A39" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="E39" s="48" t="s">
+      <c r="E39" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
       <c r="K39" s="29"/>
       <c r="L39" s="29"/>
       <c r="M39" s="29"/>
@@ -7975,106 +7989,106 @@
       <c r="Z39" s="29"/>
     </row>
     <row r="40" spans="1:26" s="22" customFormat="1" ht="15">
-      <c r="A40" s="49"/>
-      <c r="B40" s="49" t="s">
+      <c r="A40" s="48"/>
+      <c r="B40" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49" t="s">
+      <c r="C40" s="48"/>
+      <c r="D40" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="E40" s="49" t="s">
+      <c r="E40" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49" t="s">
+      <c r="F40" s="48"/>
+      <c r="G40" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49">
+      <c r="H40" s="48"/>
+      <c r="I40" s="48">
         <v>1</v>
       </c>
-      <c r="J40" s="49"/>
-      <c r="K40" s="50">
+      <c r="J40" s="48"/>
+      <c r="K40" s="49">
         <v>-2</v>
       </c>
-      <c r="L40" s="50">
-        <v>2</v>
-      </c>
-      <c r="M40" s="50">
-        <v>0</v>
-      </c>
-      <c r="N40" s="50">
+      <c r="L40" s="49">
+        <v>2</v>
+      </c>
+      <c r="M40" s="49">
+        <v>0</v>
+      </c>
+      <c r="N40" s="49">
         <f>(L40-K40)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O40" s="50">
+      <c r="O40" s="49">
         <v>1</v>
       </c>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51" t="s">
+      <c r="P40" s="50"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="S40" s="51"/>
-      <c r="T40" s="51"/>
-      <c r="U40" s="51"/>
-      <c r="V40" s="51"/>
-      <c r="W40" s="51"/>
-      <c r="X40" s="51"/>
-      <c r="Y40" s="51"/>
-      <c r="Z40" s="51"/>
+      <c r="S40" s="50"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="50"/>
+      <c r="V40" s="50"/>
+      <c r="W40" s="50"/>
+      <c r="X40" s="50"/>
+      <c r="Y40" s="50"/>
+      <c r="Z40" s="50"/>
     </row>
     <row r="41" spans="1:26" s="22" customFormat="1" ht="15">
-      <c r="A41" s="49"/>
-      <c r="B41" s="49" t="s">
+      <c r="A41" s="48"/>
+      <c r="B41" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49" t="s">
+      <c r="C41" s="48"/>
+      <c r="D41" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="E41" s="49" t="s">
+      <c r="E41" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49" t="s">
+      <c r="F41" s="48"/>
+      <c r="G41" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49">
+      <c r="H41" s="48"/>
+      <c r="I41" s="48">
         <v>-1</v>
       </c>
-      <c r="J41" s="49"/>
-      <c r="K41" s="50">
+      <c r="J41" s="48"/>
+      <c r="K41" s="49">
         <v>-2</v>
       </c>
-      <c r="L41" s="50">
-        <v>2</v>
-      </c>
-      <c r="M41" s="50">
-        <v>0</v>
-      </c>
-      <c r="N41" s="50">
+      <c r="L41" s="49">
+        <v>2</v>
+      </c>
+      <c r="M41" s="49">
+        <v>0</v>
+      </c>
+      <c r="N41" s="49">
         <f>(L41-K41)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O41" s="50">
+      <c r="O41" s="49">
         <v>1</v>
       </c>
-      <c r="P41" s="51"/>
-      <c r="Q41" s="51"/>
-      <c r="R41" s="51" t="s">
+      <c r="P41" s="50"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="S41" s="51"/>
-      <c r="T41" s="51"/>
-      <c r="U41" s="51"/>
-      <c r="V41" s="51"/>
-      <c r="W41" s="51"/>
-      <c r="X41" s="51"/>
-      <c r="Y41" s="51"/>
-      <c r="Z41" s="51"/>
+      <c r="S41" s="50"/>
+      <c r="T41" s="50"/>
+      <c r="U41" s="50"/>
+      <c r="V41" s="50"/>
+      <c r="W41" s="50"/>
+      <c r="X41" s="50"/>
+      <c r="Y41" s="50"/>
+      <c r="Z41" s="50"/>
     </row>
     <row r="42" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A42" s="10"/>
@@ -8117,55 +8131,55 @@
       </c>
     </row>
     <row r="44" spans="1:26" s="28" customFormat="1">
-      <c r="A44" s="51"/>
-      <c r="B44" s="51" t="s">
+      <c r="A44" s="50"/>
+      <c r="B44" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51" t="s">
+      <c r="C44" s="50"/>
+      <c r="D44" s="50" t="s">
         <v>535</v>
       </c>
-      <c r="E44" s="51" t="s">
+      <c r="E44" s="50" t="s">
         <v>536</v>
       </c>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51" t="s">
+      <c r="F44" s="50"/>
+      <c r="G44" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51">
+      <c r="H44" s="50"/>
+      <c r="I44" s="50">
         <v>44</v>
       </c>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51">
+      <c r="J44" s="50"/>
+      <c r="K44" s="50">
         <v>42</v>
       </c>
-      <c r="L44" s="51">
+      <c r="L44" s="50">
         <v>46</v>
       </c>
-      <c r="M44" s="51">
+      <c r="M44" s="50">
         <v>44</v>
       </c>
-      <c r="N44" s="50">
+      <c r="N44" s="49">
         <f>(L44-K44)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O44" s="50">
+      <c r="O44" s="49">
         <v>1</v>
       </c>
-      <c r="P44" s="51"/>
-      <c r="Q44" s="51"/>
-      <c r="R44" s="51" t="s">
+      <c r="P44" s="50"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="S44" s="51"/>
-      <c r="T44" s="51"/>
-      <c r="U44" s="51"/>
-      <c r="V44" s="51"/>
-      <c r="W44" s="51"/>
-      <c r="X44" s="51"/>
-      <c r="Y44" s="51"/>
-      <c r="Z44" s="51"/>
+      <c r="S44" s="50"/>
+      <c r="T44" s="50"/>
+      <c r="U44" s="50"/>
+      <c r="V44" s="50"/>
+      <c r="W44" s="50"/>
+      <c r="X44" s="50"/>
+      <c r="Y44" s="50"/>
+      <c r="Z44" s="50"/>
     </row>
     <row r="45" spans="1:26" s="22" customFormat="1">
       <c r="A45" s="29" t="b">
@@ -8206,55 +8220,55 @@
       <c r="Z45" s="29"/>
     </row>
     <row r="46" spans="1:26" s="22" customFormat="1">
-      <c r="A46" s="51"/>
-      <c r="B46" s="51" t="s">
+      <c r="A46" s="50"/>
+      <c r="B46" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51" t="s">
+      <c r="C46" s="50"/>
+      <c r="D46" s="50" t="s">
         <v>539</v>
       </c>
-      <c r="E46" s="51" t="s">
+      <c r="E46" s="50" t="s">
         <v>538</v>
       </c>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51" t="s">
+      <c r="F46" s="50"/>
+      <c r="G46" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51">
+      <c r="H46" s="50"/>
+      <c r="I46" s="50">
         <v>120</v>
       </c>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51">
+      <c r="J46" s="50"/>
+      <c r="K46" s="50">
         <v>118</v>
       </c>
-      <c r="L46" s="51">
+      <c r="L46" s="50">
         <v>122</v>
       </c>
-      <c r="M46" s="51">
+      <c r="M46" s="50">
         <v>120</v>
       </c>
-      <c r="N46" s="50">
+      <c r="N46" s="49">
         <f>(L46-K46)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O46" s="50">
+      <c r="O46" s="49">
         <v>1</v>
       </c>
-      <c r="P46" s="51"/>
-      <c r="Q46" s="51"/>
-      <c r="R46" s="51" t="s">
+      <c r="P46" s="50"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="S46" s="51"/>
-      <c r="T46" s="51"/>
-      <c r="U46" s="51"/>
-      <c r="V46" s="51"/>
-      <c r="W46" s="51"/>
-      <c r="X46" s="51"/>
-      <c r="Y46" s="51"/>
-      <c r="Z46" s="51"/>
+      <c r="S46" s="50"/>
+      <c r="T46" s="50"/>
+      <c r="U46" s="50"/>
+      <c r="V46" s="50"/>
+      <c r="W46" s="50"/>
+      <c r="X46" s="50"/>
+      <c r="Y46" s="50"/>
+      <c r="Z46" s="50"/>
     </row>
     <row r="47" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A47" s="45" t="b">
@@ -9810,7 +9824,7 @@
         <v>461</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>622</v>
@@ -9849,7 +9863,7 @@
         <v>629</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>630</v>
@@ -9888,7 +9902,7 @@
         <v>636</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>637</v>
@@ -9923,7 +9937,7 @@
         <v>639</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>640</v>
@@ -9955,15 +9969,15 @@
     </row>
     <row r="6" spans="1:13" s="23" customFormat="1">
       <c r="A6" s="15" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>64</v>
@@ -9984,15 +9998,15 @@
     </row>
     <row r="7" spans="1:13" s="23" customFormat="1">
       <c r="A7" s="15" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>64</v>
@@ -10013,15 +10027,15 @@
     </row>
     <row r="8" spans="1:13" s="23" customFormat="1">
       <c r="A8" s="15" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>64</v>
@@ -10042,15 +10056,15 @@
     </row>
     <row r="9" spans="1:13" s="23" customFormat="1">
       <c r="A9" s="15" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>64</v>
@@ -10071,12 +10085,12 @@
     </row>
     <row r="10" spans="1:13" s="23" customFormat="1">
       <c r="A10" s="15" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>470</v>
@@ -10100,12 +10114,12 @@
     </row>
     <row r="11" spans="1:13" s="23" customFormat="1">
       <c r="A11" s="15" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>470</v>
@@ -10129,12 +10143,12 @@
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1">
       <c r="A12" s="15" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>470</v>
@@ -10158,12 +10172,12 @@
     </row>
     <row r="13" spans="1:13" s="23" customFormat="1">
       <c r="A13" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>470</v>
@@ -10187,12 +10201,12 @@
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1">
       <c r="A14" s="15" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>470</v>
@@ -10216,12 +10230,12 @@
     </row>
     <row r="15" spans="1:13" s="22" customFormat="1">
       <c r="A15" s="15" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>470</v>
@@ -10245,12 +10259,12 @@
     </row>
     <row r="16" spans="1:13" s="22" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>470</v>
@@ -10274,12 +10288,12 @@
     </row>
     <row r="17" spans="1:13" s="22" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>470</v>
@@ -10303,12 +10317,12 @@
     </row>
     <row r="18" spans="1:13" s="22" customFormat="1">
       <c r="A18" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>470</v>
@@ -10332,12 +10346,12 @@
     </row>
     <row r="19" spans="1:13" s="22" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>470</v>
@@ -10361,12 +10375,12 @@
     </row>
     <row r="20" spans="1:13" s="22" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>470</v>
@@ -10390,12 +10404,12 @@
     </row>
     <row r="21" spans="1:13" s="23" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>470</v>
@@ -10419,12 +10433,12 @@
     </row>
     <row r="22" spans="1:13" s="23" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>470</v>
@@ -10448,12 +10462,12 @@
     </row>
     <row r="23" spans="1:13" s="23" customFormat="1">
       <c r="A23" s="15" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>470</v>
@@ -10477,15 +10491,15 @@
     </row>
     <row r="24" spans="1:13" s="23" customFormat="1">
       <c r="A24" s="15" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>707</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>708</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>64</v>
@@ -18972,7 +18986,7 @@
         <v>439</v>
       </c>
       <c r="D1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -18980,19 +18994,19 @@
     </row>
     <row r="2" spans="1:7" s="22" customFormat="1">
       <c r="A2" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>646</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="22" t="s">
         <v>647</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>648</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>649</v>
-      </c>
       <c r="E2" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="22" customFormat="1">
@@ -19006,10 +19020,10 @@
         <v>594</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="22" customFormat="1">
@@ -19023,10 +19037,10 @@
         <v>596</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="22" customFormat="1">
@@ -19040,44 +19054,44 @@
         <v>598</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="22" customFormat="1">
       <c r="A6" s="22" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>446</v>
       </c>
       <c r="C6" s="22" t="s">
+        <v>653</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>654</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>655</v>
-      </c>
       <c r="E6" s="22" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="22" customFormat="1">
       <c r="A7" s="22" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C7" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>657</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>658</v>
-      </c>
       <c r="E7" s="22" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="22" customFormat="1">
@@ -19091,10 +19105,10 @@
         <v>600</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="22" customFormat="1">
@@ -19108,10 +19122,10 @@
         <v>602</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -19125,10 +19139,10 @@
         <v>603</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="22" customFormat="1">
@@ -19142,10 +19156,10 @@
         <v>605</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="22" customFormat="1">
@@ -19153,16 +19167,16 @@
         <v>606</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>607</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="22" customFormat="1"/>

--- a/projects/template_nsga.xlsx
+++ b/projects/template_nsga.xlsx
@@ -2187,9 +2187,6 @@
     <t>standard_reports.total_building_area</t>
   </si>
   <si>
-    <t>1.8.0-pre12</t>
-  </si>
-  <si>
     <t>South WWR</t>
   </si>
   <si>
@@ -2236,6 +2233,9 @@
   </si>
   <si>
     <t>0.3.5</t>
+  </si>
+  <si>
+    <t>1.8.0-rc2</t>
   </si>
 </sst>
 </file>
@@ -5801,7 +5801,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5839,7 +5839,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5861,7 +5861,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>618</v>
@@ -5906,7 +5906,7 @@
         <v>443</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,5,FALSE)</f>
@@ -5914,11 +5914,11 @@
       </c>
       <c r="D8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
-        <v>32 Cores with 320 GB</v>
+        <v>16 Cores with 160 GB</v>
       </c>
       <c r="E8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
-        <v>$1.68/hour</v>
+        <v>$0.84/hour</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>444</v>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="E9" s="24" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
-        <v>$2.17/hour</v>
+        <v>$1.33/hour</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>609</v>
@@ -5958,7 +5958,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>473</v>
@@ -5969,7 +5969,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>619</v>
@@ -6269,7 +6269,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" ht="28">
@@ -6295,13 +6295,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>450</v>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>46</v>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>75</v>
@@ -7059,7 +7059,7 @@
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E17" s="46" t="s">
         <v>258</v>
@@ -7089,7 +7089,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
@@ -7259,7 +7259,7 @@
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E22" s="46" t="s">
         <v>258</v>
@@ -7287,10 +7287,10 @@
       </c>
       <c r="O22" s="42"/>
       <c r="P22" s="42" t="s">
+        <v>724</v>
+      </c>
+      <c r="Q22" s="42" t="s">
         <v>725</v>
-      </c>
-      <c r="Q22" s="42" t="s">
-        <v>726</v>
       </c>
       <c r="R22" s="42" t="s">
         <v>24</v>
@@ -7463,7 +7463,7 @@
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E27" s="46" t="s">
         <v>77</v>
@@ -7627,7 +7627,7 @@
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="46" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>77</v>
@@ -7791,7 +7791,7 @@
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="42" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>172</v>

--- a/projects/template_nsga.xlsx
+++ b/projects/template_nsga.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19840" tabRatio="562"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="27640" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="734">
   <si>
     <t>type</t>
   </si>
@@ -1998,24 +1998,6 @@
     <t>80 GB</t>
   </si>
   <si>
-    <t>m2.2xlarge</t>
-  </si>
-  <si>
-    <t>$0.49/hour</t>
-  </si>
-  <si>
-    <t>850 GB</t>
-  </si>
-  <si>
-    <t>m2.4xlarge</t>
-  </si>
-  <si>
-    <t>$0.98/hour</t>
-  </si>
-  <si>
-    <t>840 GB</t>
-  </si>
-  <si>
     <t>16 GB</t>
   </si>
   <si>
@@ -2037,12 +2019,6 @@
     <t>Recommended for Server if large analysis because of storage</t>
   </si>
   <si>
-    <t>Worker Only</t>
-  </si>
-  <si>
-    <t>Worker Only - Recommended for Worker</t>
-  </si>
-  <si>
     <t>Storage</t>
   </si>
   <si>
@@ -2232,10 +2208,40 @@
     <t>../seeds/large_office_air_cooled_chiller.osm</t>
   </si>
   <si>
-    <t>0.3.5</t>
-  </si>
-  <si>
-    <t>1.8.0-rc2</t>
+    <t>Can be used as worker</t>
+  </si>
+  <si>
+    <t>Recommended for worker</t>
+  </si>
+  <si>
+    <t>i2.xlarge</t>
+  </si>
+  <si>
+    <t>$0.85/hour</t>
+  </si>
+  <si>
+    <t>800 GB</t>
+  </si>
+  <si>
+    <t>i2.2xlarge</t>
+  </si>
+  <si>
+    <t>$1.71/hour</t>
+  </si>
+  <si>
+    <t>AWS Tag</t>
+  </si>
+  <si>
+    <t>org=5500</t>
+  </si>
+  <si>
+    <t>Add extra tags to your instances (key=value). Add another line if you need another tag.</t>
+  </si>
+  <si>
+    <t>0.3.6</t>
+  </si>
+  <si>
+    <t>1.8.0</t>
   </si>
 </sst>
 </file>
@@ -2403,8 +2409,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1493">
+  <cellStyleXfs count="1499">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4006,7 +4018,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1493">
+  <cellStyles count="1499">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4753,6 +4765,9 @@
     <cellStyle name="Followed Hyperlink" xfId="1488" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1490" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1498" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5499,6 +5514,9 @@
     <cellStyle name="Hyperlink" xfId="1487" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1489" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1497" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5798,10 +5816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5839,7 +5857,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5861,7 +5879,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>618</v>
@@ -5878,24 +5896,24 @@
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>652</v>
+        <v>595</v>
       </c>
       <c r="C7" s="24" t="str">
         <f>VLOOKUP($B7,instance_defs,5,FALSE)</f>
-        <v>Recommended for Server if large analysis because of storage</v>
+        <v>Recommended for Server</v>
       </c>
       <c r="D7" s="24" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
-        <v>4 Cores with 850 GB</v>
+        <v>4 Cores with 40 GB</v>
       </c>
       <c r="E7" s="24" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
-        <v>$0.49/hour</v>
+        <v>$0.28/hour</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>610</v>
@@ -5906,19 +5924,19 @@
         <v>443</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>604</v>
+        <v>440</v>
       </c>
       <c r="C8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,5,FALSE)</f>
-        <v>Worker Only - Recommended for Worker</v>
+        <v>Recommended for worker</v>
       </c>
       <c r="D8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
-        <v>16 Cores with 160 GB</v>
+        <v>8 Cores with 80 GB</v>
       </c>
       <c r="E8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
-        <v>$0.84/hour</v>
+        <v>$0.42/hour</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>444</v>
@@ -5933,54 +5951,57 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="24" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="E9" s="24" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
-        <v>$1.33/hour</v>
+        <v>$0.7/hour</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="7" customFormat="1">
-      <c r="A11" s="6" t="s">
+    <row r="10" spans="1:6" s="23" customFormat="1" ht="28">
+      <c r="A10" s="23" t="s">
+        <v>729</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>730</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="7" customFormat="1">
+      <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>727</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>473</v>
-      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>717</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>619</v>
+        <v>719</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>452</v>
+        <v>709</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>619</v>
@@ -5988,354 +6009,365 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B15" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>437</v>
+        <v>26</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B16" s="16" t="b">
+        <v>464</v>
+      </c>
+      <c r="B16" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>611</v>
+      <c r="F16" s="1" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>437</v>
+        <v>465</v>
+      </c>
+      <c r="B17" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>547</v>
+        <v>467</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" ht="42">
-      <c r="A20" s="6" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="42">
+      <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B21" s="19" t="s">
         <v>612</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="8" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="8" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B22" s="17" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="23" customFormat="1">
-      <c r="B22" s="18"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" ht="42">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:6" s="23" customFormat="1">
+      <c r="B23" s="18"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="42">
+      <c r="A24" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B24" s="19" t="s">
         <v>615</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="8" t="s">
+      <c r="E24" s="6"/>
+      <c r="F24" s="8" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>Number of Samples</v>
-      </c>
-      <c r="B24" s="18">
-        <f>IF(D24&lt;&gt;"",D24,IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>30</v>
-      </c>
-      <c r="C24" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>Size of initial population</v>
-      </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="23"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>Generations</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <v>Number of Samples</v>
       </c>
       <c r="B25" s="18">
-        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>3</v>
+        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v>30</v>
       </c>
       <c r="C25" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>Number of generations</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <v>Size of initial population</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="23"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>cprob</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <v>Generations</v>
       </c>
       <c r="B26" s="18">
-        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>0.85</v>
+        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v>3</v>
       </c>
       <c r="C26" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>Crossover probability [0,1]</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <v>Number of generations</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="23"/>
     </row>
-    <row r="27" spans="1:6" s="23" customFormat="1" ht="42">
+    <row r="27" spans="1:6">
       <c r="A27" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>XoverDistIdx</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <v>cprob</v>
       </c>
       <c r="B27" s="18">
-        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>2</v>
+        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v>0.85</v>
       </c>
       <c r="C27" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>Crossover Distribution Index (large values give higher probabilities of offspring close to parent)</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <v>Crossover probability [0,1]</v>
       </c>
       <c r="D27" s="27"/>
+      <c r="E27" s="23"/>
     </row>
     <row r="28" spans="1:6" s="23" customFormat="1" ht="42">
       <c r="A28" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <v>XoverDistIdx</v>
+      </c>
+      <c r="B28" s="18">
+        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v>2</v>
+      </c>
+      <c r="C28" s="25" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <v>Crossover Distribution Index (large values give higher probabilities of offspring close to parent)</v>
+      </c>
+      <c r="D28" s="27"/>
+    </row>
+    <row r="29" spans="1:6" s="23" customFormat="1" ht="42">
+      <c r="A29" s="23" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v>MuDistIdx</v>
       </c>
-      <c r="B28" s="18">
-        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>2</v>
-      </c>
-      <c r="C28" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+      <c r="B29" s="18">
+        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v>2</v>
+      </c>
+      <c r="C29" s="25" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v>Mutation Distribution Index (large values give higher probabilities of offspring close to parent)</v>
-      </c>
-      <c r="D28" s="27"/>
-    </row>
-    <row r="29" spans="1:6" s="23" customFormat="1">
-      <c r="A29" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>mprob</v>
-      </c>
-      <c r="B29" s="18">
-        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>0.8</v>
-      </c>
-      <c r="C29" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>Mutation probability [0,1]</v>
       </c>
       <c r="D29" s="27"/>
     </row>
     <row r="30" spans="1:6" s="23" customFormat="1">
       <c r="A30" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>normType</v>
-      </c>
-      <c r="B30" s="18" t="str">
-        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>minkowski</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <v>mprob</v>
+      </c>
+      <c r="B30" s="18">
+        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v>0.8</v>
       </c>
       <c r="C30" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <v>Mutation probability [0,1]</v>
       </c>
       <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:6" s="23" customFormat="1">
       <c r="A31" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>pPower</v>
-      </c>
-      <c r="B31" s="18">
-        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>2</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <v>normType</v>
+      </c>
+      <c r="B31" s="18" t="str">
+        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v>minkowski</v>
       </c>
       <c r="C31" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v>Lp norm power</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
       </c>
       <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:6" s="23" customFormat="1">
       <c r="A32" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <v>pPower</v>
+      </c>
+      <c r="B32" s="18">
+        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v>2</v>
+      </c>
+      <c r="C32" s="25" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <v>Lp norm power</v>
+      </c>
+      <c r="D32" s="27"/>
+    </row>
+    <row r="33" spans="1:6" s="23" customFormat="1">
+      <c r="A33" s="23" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
       </c>
-      <c r="B32" s="18" t="str">
-        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+      <c r="B33" s="18" t="str">
+        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v/>
       </c>
-      <c r="C32" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+      <c r="C33" s="25" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v/>
       </c>
-      <c r="D32" s="27"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+      <c r="D33" s="27"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="23" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
       </c>
-      <c r="B33" s="18" t="str">
-        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+      <c r="B34" s="18" t="str">
+        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v/>
       </c>
-      <c r="C33" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+      <c r="C34" s="25" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v/>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="23"/>
-    </row>
-    <row r="34" spans="1:6" s="23" customFormat="1">
-      <c r="A34" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+      <c r="D34" s="27"/>
+      <c r="E34" s="23"/>
+    </row>
+    <row r="35" spans="1:6" s="23" customFormat="1">
+      <c r="A35" s="23" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
       </c>
-      <c r="B34" s="18" t="str">
-        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+      <c r="B35" s="18" t="str">
+        <f>IF(D35&lt;&gt;"",D35,IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v/>
       </c>
-      <c r="C34" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+      <c r="C35" s="25" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v/>
       </c>
-      <c r="D34" s="27"/>
-    </row>
-    <row r="35" spans="1:6" s="23" customFormat="1">
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" ht="28">
-      <c r="A36" s="6" t="s">
+      <c r="D35" s="27"/>
+    </row>
+    <row r="36" spans="1:6" s="23" customFormat="1">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" s="2" customFormat="1" ht="28">
+      <c r="A37" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B37" s="19" t="s">
         <v>620</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1" t="s">
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="26" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" ht="28">
-      <c r="A39" s="6" t="s">
+      <c r="B38" s="26" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="28">
+      <c r="A40" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B40" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="8" t="s">
+      <c r="E40" s="6"/>
+      <c r="F40" s="8" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28">
-      <c r="A40" s="23" t="s">
+    <row r="41" spans="1:6" ht="28">
+      <c r="A41" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>728</v>
-      </c>
-      <c r="C40" s="14" t="s">
+      <c r="B41" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="14" t="s">
-        <v>729</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="D41" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" ht="56">
-      <c r="A42" s="6" t="s">
+    <row r="43" spans="1:6" s="2" customFormat="1" ht="56">
+      <c r="A43" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B43" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="8" t="s">
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="8" t="s">
         <v>616</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
       <formula1>AnalysisType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B17">
       <formula1>TrueFalse</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>Workflow</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
       <formula1>simulate_data_point</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7:B8">
@@ -6621,7 +6653,7 @@
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>46</v>
@@ -6973,7 +7005,7 @@
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>75</v>
@@ -7059,7 +7091,7 @@
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="E17" s="46" t="s">
         <v>258</v>
@@ -7089,7 +7121,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
@@ -7259,7 +7291,7 @@
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="E22" s="46" t="s">
         <v>258</v>
@@ -7287,10 +7319,10 @@
       </c>
       <c r="O22" s="42"/>
       <c r="P22" s="42" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="Q22" s="42" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="R22" s="42" t="s">
         <v>24</v>
@@ -7463,7 +7495,7 @@
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="E27" s="46" t="s">
         <v>77</v>
@@ -7627,7 +7659,7 @@
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="46" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>77</v>
@@ -7724,7 +7756,7 @@
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>84</v>
@@ -7791,13 +7823,13 @@
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="42" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="G35" s="42" t="s">
         <v>64</v>
@@ -7931,7 +7963,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
@@ -9902,7 +9934,7 @@
         <v>636</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>637</v>
@@ -9937,7 +9969,7 @@
         <v>639</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>640</v>
@@ -9969,15 +10001,15 @@
     </row>
     <row r="6" spans="1:13" s="23" customFormat="1">
       <c r="A6" s="15" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>64</v>
@@ -9998,15 +10030,15 @@
     </row>
     <row r="7" spans="1:13" s="23" customFormat="1">
       <c r="A7" s="15" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>64</v>
@@ -10027,15 +10059,15 @@
     </row>
     <row r="8" spans="1:13" s="23" customFormat="1">
       <c r="A8" s="15" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>64</v>
@@ -10056,15 +10088,15 @@
     </row>
     <row r="9" spans="1:13" s="23" customFormat="1">
       <c r="A9" s="15" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>64</v>
@@ -10085,12 +10117,12 @@
     </row>
     <row r="10" spans="1:13" s="23" customFormat="1">
       <c r="A10" s="15" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>470</v>
@@ -10114,12 +10146,12 @@
     </row>
     <row r="11" spans="1:13" s="23" customFormat="1">
       <c r="A11" s="15" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>470</v>
@@ -10143,12 +10175,12 @@
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1">
       <c r="A12" s="15" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>470</v>
@@ -10172,12 +10204,12 @@
     </row>
     <row r="13" spans="1:13" s="23" customFormat="1">
       <c r="A13" s="15" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>470</v>
@@ -10201,12 +10233,12 @@
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1">
       <c r="A14" s="15" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>470</v>
@@ -10230,12 +10262,12 @@
     </row>
     <row r="15" spans="1:13" s="22" customFormat="1">
       <c r="A15" s="15" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>470</v>
@@ -10259,12 +10291,12 @@
     </row>
     <row r="16" spans="1:13" s="22" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>470</v>
@@ -10288,12 +10320,12 @@
     </row>
     <row r="17" spans="1:13" s="22" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>470</v>
@@ -10317,12 +10349,12 @@
     </row>
     <row r="18" spans="1:13" s="22" customFormat="1">
       <c r="A18" s="15" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>470</v>
@@ -10346,12 +10378,12 @@
     </row>
     <row r="19" spans="1:13" s="22" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>470</v>
@@ -10375,12 +10407,12 @@
     </row>
     <row r="20" spans="1:13" s="22" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>470</v>
@@ -10404,12 +10436,12 @@
     </row>
     <row r="21" spans="1:13" s="23" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>470</v>
@@ -10433,12 +10465,12 @@
     </row>
     <row r="22" spans="1:13" s="23" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>470</v>
@@ -10462,12 +10494,12 @@
     </row>
     <row r="23" spans="1:13" s="23" customFormat="1">
       <c r="A23" s="15" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>470</v>
@@ -10491,15 +10523,15 @@
     </row>
     <row r="24" spans="1:13" s="23" customFormat="1">
       <c r="A24" s="15" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>64</v>
@@ -18962,7 +18994,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -18986,7 +19018,7 @@
         <v>439</v>
       </c>
       <c r="D1" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -19006,7 +19038,7 @@
         <v>648</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="22" customFormat="1">
@@ -19023,7 +19055,7 @@
         <v>649</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="22" customFormat="1">
@@ -19040,7 +19072,7 @@
         <v>650</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="22" customFormat="1">
@@ -19057,126 +19089,126 @@
         <v>651</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="22" customFormat="1">
       <c r="A6" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>600</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>652</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>653</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>654</v>
-      </c>
       <c r="E6" s="22" t="s">
-        <v>664</v>
+        <v>722</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="22" customFormat="1">
       <c r="A7" s="22" t="s">
-        <v>655</v>
+        <v>601</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>656</v>
+        <v>602</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>664</v>
+        <v>722</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="22" customFormat="1">
       <c r="A8" s="22" t="s">
-        <v>599</v>
+        <v>440</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>665</v>
+        <v>723</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="22" customFormat="1">
       <c r="A9" s="22" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>665</v>
+        <v>723</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="22" t="s">
-        <v>440</v>
+        <v>606</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>447</v>
+        <v>654</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>666</v>
+        <v>723</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="22" customFormat="1">
       <c r="A11" s="22" t="s">
-        <v>604</v>
+        <v>724</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>605</v>
+        <v>725</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>659</v>
+        <v>726</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="22" customFormat="1">
       <c r="A12" s="22" t="s">
-        <v>606</v>
+        <v>727</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>660</v>
+        <v>447</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>607</v>
+        <v>728</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>661</v>
+        <v>726</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="22" customFormat="1"/>

--- a/projects/template_nsga.xlsx
+++ b/projects/template_nsga.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="27640" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19840" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="743">
   <si>
     <t>type</t>
   </si>
@@ -2238,10 +2238,37 @@
     <t>Add extra tags to your instances (key=value). Add another line if you need another tag.</t>
   </si>
   <si>
-    <t>0.3.6</t>
-  </si>
-  <si>
     <t>1.8.0</t>
+  </si>
+  <si>
+    <t>0.3.7</t>
+  </si>
+  <si>
+    <t>Worker Initialization Scripts - Name</t>
+  </si>
+  <si>
+    <t>Path (relative or absolute) to local script</t>
+  </si>
+  <si>
+    <t>Arguments (in the form of an array ["19837,"z",{b: 'something'}])</t>
+  </si>
+  <si>
+    <t>These scripts will be executed in this order on each worker node when it is initialized.  These can be used to download any analysis-wide files such as BCL data, utility data, etc. Name is arbitary, but a name must exist to include the line.</t>
+  </si>
+  <si>
+    <t>Worker Finalization Scripts - Name</t>
+  </si>
+  <si>
+    <t>Path (relative or absolute) to local script)</t>
+  </si>
+  <si>
+    <t>These scripts will be executed in this order on each worker node when it is finalized. Can be used to push all the results of the anlaysis to a specific location. Name is arbitary, but a name must exist to include the line.</t>
+  </si>
+  <si>
+    <t>Window to Wall Ratio South</t>
+  </si>
+  <si>
+    <t>Window to Wall Ratio East</t>
   </si>
 </sst>
 </file>
@@ -2400,9 +2427,18 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -3910,7 +3946,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4016,6 +4052,9 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1499">
@@ -5816,11 +5855,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -5857,7 +5894,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5879,7 +5916,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>618</v>
@@ -6308,7 +6345,7 @@
       <c r="A40" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="52" t="s">
         <v>455</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -6353,6 +6390,48 @@
       <c r="E43" s="6"/>
       <c r="F43" s="8" t="s">
         <v>616</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="2" customFormat="1" ht="56">
+      <c r="A46" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>735</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="8" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="2" customFormat="1">
+      <c r="B47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" s="23" customFormat="1">
+      <c r="B48" s="18"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" s="2" customFormat="1" ht="42">
+      <c r="A49" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>739</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="8" t="s">
+        <v>740</v>
       </c>
     </row>
   </sheetData>
@@ -6388,8 +6467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7050,7 +7129,7 @@
       <c r="A16" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="39" t="s">
         <v>255</v>
       </c>
       <c r="C16" s="39" t="s">
@@ -7250,7 +7329,7 @@
       <c r="A21" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="39" t="s">
         <v>265</v>
       </c>
       <c r="C21" s="39" t="s">
@@ -7454,8 +7533,8 @@
       <c r="A26" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B26" s="45" t="s">
-        <v>383</v>
+      <c r="B26" s="39" t="s">
+        <v>741</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>76</v>
@@ -7618,8 +7697,8 @@
       <c r="A30" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B30" s="45" t="s">
-        <v>383</v>
+      <c r="B30" s="39" t="s">
+        <v>742</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>76</v>

--- a/projects/template_nsga.xlsx
+++ b/projects/template_nsga.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19840" tabRatio="562"/>
@@ -2238,12 +2238,6 @@
     <t>Add extra tags to your instances (key=value). Add another line if you need another tag.</t>
   </si>
   <si>
-    <t>1.8.0</t>
-  </si>
-  <si>
-    <t>0.3.7</t>
-  </si>
-  <si>
     <t>Worker Initialization Scripts - Name</t>
   </si>
   <si>
@@ -2269,6 +2263,12 @@
   </si>
   <si>
     <t>Window to Wall Ratio East</t>
+  </si>
+  <si>
+    <t>0.4.0</t>
+  </si>
+  <si>
+    <t>1.9.0</t>
   </si>
 </sst>
 </file>
@@ -4050,11 +4050,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1499">
@@ -5857,7 +5857,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -5894,7 +5896,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5916,7 +5918,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>618</v>
@@ -6345,7 +6347,7 @@
       <c r="A40" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="51" t="s">
         <v>455</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -6394,18 +6396,18 @@
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" ht="56">
       <c r="A46" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>734</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>735</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>736</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="8" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="2" customFormat="1">
@@ -6420,18 +6422,18 @@
     </row>
     <row r="49" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A49" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="8" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
   </sheetData>
@@ -6524,14 +6526,14 @@
       <c r="R1" s="33"/>
       <c r="S1" s="30"/>
       <c r="T1" s="30"/>
-      <c r="U1" s="51" t="s">
+      <c r="U1" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
     </row>
     <row r="2" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A2" s="34" t="s">
@@ -7534,7 +7536,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>76</v>
@@ -7698,7 +7700,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>76</v>

--- a/projects/template_nsga.xlsx
+++ b/projects/template_nsga.xlsx
@@ -2268,7 +2268,7 @@
     <t>0.4.0</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.3</t>
   </si>
 </sst>
 </file>
@@ -2445,8 +2445,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1499">
+  <cellStyleXfs count="1501">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4057,7 +4059,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1499">
+  <cellStyles count="1501">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4807,6 +4809,7 @@
     <cellStyle name="Followed Hyperlink" xfId="1494" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1496" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1500" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5556,6 +5559,7 @@
     <cellStyle name="Hyperlink" xfId="1493" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1495" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1499" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>

--- a/projects/template_nsga.xlsx
+++ b/projects/template_nsga.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19840" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19840" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -1869,15 +1869,9 @@
     <t>Default Cluster</t>
   </si>
   <si>
-    <t>Number of worker nodes to start.</t>
-  </si>
-  <si>
     <t>Use a minimum of 2 cores for server.</t>
   </si>
   <si>
-    <t>Enable this for certain analysis. Typically do not use the server as a worker.</t>
-  </si>
-  <si>
     <t>Problem Type</t>
   </si>
   <si>
@@ -2265,10 +2259,16 @@
     <t>Window to Wall Ratio East</t>
   </si>
   <si>
-    <t>0.4.0</t>
-  </si>
-  <si>
     <t>1.9.3</t>
+  </si>
+  <si>
+    <t>Number of worker nodes to start. This can be zero for testing purposes (all simulations will be run on the server node).</t>
+  </si>
+  <si>
+    <t>Typically leave this as TRUE unless you are running many worker nodes</t>
+  </si>
+  <si>
+    <t>0.4.2</t>
   </si>
 </sst>
 </file>
@@ -2445,8 +2445,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1501">
+  <cellStyleXfs count="1503">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4059,7 +4061,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1501">
+  <cellStyles count="1503">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4810,6 +4812,7 @@
     <cellStyle name="Followed Hyperlink" xfId="1496" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1498" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1502" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5560,6 +5563,7 @@
     <cellStyle name="Hyperlink" xfId="1495" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1497" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1501" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5861,9 +5865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -5900,7 +5902,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5922,10 +5924,10 @@
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="46" customHeight="1">
@@ -5959,7 +5961,7 @@
         <v>$0.28/hour</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28">
@@ -5985,7 +5987,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="28">
       <c r="A9" s="1" t="s">
         <v>460</v>
       </c>
@@ -5994,28 +5996,28 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="24" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E9" s="24" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
         <v>$0.7/hour</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>609</v>
+        <v>740</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="23" customFormat="1" ht="28">
       <c r="A10" s="23" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="7" customFormat="1">
@@ -6033,7 +6035,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>473</v>
@@ -6044,10 +6046,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6058,7 +6060,7 @@
         <v>452</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6080,7 +6082,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>611</v>
+        <v>741</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6110,7 +6112,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -6137,13 +6139,13 @@
         <v>451</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="8" t="s">
@@ -6330,7 +6332,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>31</v>
@@ -6344,7 +6346,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1" ht="28">
@@ -6358,7 +6360,7 @@
         <v>38</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="8" t="s">
@@ -6370,13 +6372,13 @@
         <v>32</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>450</v>
@@ -6390,28 +6392,28 @@
         <v>34</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" ht="56">
       <c r="A46" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>731</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>732</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>733</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>734</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="8" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="2" customFormat="1">
@@ -6426,18 +6428,18 @@
     </row>
     <row r="49" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A49" s="6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="8" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
   </sheetData>
@@ -6473,9 +6475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -6592,7 +6592,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>11</v>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>46</v>
@@ -7090,7 +7090,7 @@
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>75</v>
@@ -7176,7 +7176,7 @@
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E17" s="46" t="s">
         <v>258</v>
@@ -7206,7 +7206,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
@@ -7376,7 +7376,7 @@
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E22" s="46" t="s">
         <v>258</v>
@@ -7404,10 +7404,10 @@
       </c>
       <c r="O22" s="42"/>
       <c r="P22" s="42" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="Q22" s="42" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="R22" s="42" t="s">
         <v>24</v>
@@ -7540,7 +7540,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>76</v>
@@ -7580,7 +7580,7 @@
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E27" s="46" t="s">
         <v>77</v>
@@ -7677,7 +7677,7 @@
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J29" s="10" t="s">
         <v>84</v>
@@ -7704,7 +7704,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>76</v>
@@ -7744,7 +7744,7 @@
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="46" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>77</v>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>84</v>
@@ -7908,13 +7908,13 @@
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="42" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G35" s="42" t="s">
         <v>64</v>
@@ -8048,7 +8048,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
@@ -9941,10 +9941,10 @@
         <v>461</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>462</v>
@@ -9956,41 +9956,41 @@
         <v>11</v>
       </c>
       <c r="G2" s="35" t="s">
+        <v>621</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>622</v>
+      </c>
+      <c r="I2" s="35" t="s">
         <v>623</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="J2" s="35" t="s">
         <v>624</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="K2" s="35" t="s">
         <v>625</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="L2" s="35" t="s">
         <v>626</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>627</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>628</v>
       </c>
       <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:13" s="9" customFormat="1" ht="45">
       <c r="A3" s="35" t="s">
+        <v>627</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>642</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>628</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>629</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>644</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>630</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>631</v>
       </c>
       <c r="E3" s="35"/>
       <c r="F3" s="35" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>463</v>
@@ -10002,30 +10002,30 @@
         <v>463</v>
       </c>
       <c r="J3" s="37" t="s">
+        <v>631</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>631</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>632</v>
+      </c>
+      <c r="M3" s="35" t="s">
         <v>633</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>633</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>634</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="23" customFormat="1">
       <c r="A4" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>636</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>701</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>637</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>638</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>470</v>
@@ -10051,16 +10051,16 @@
     </row>
     <row r="5" spans="1:13" s="23" customFormat="1">
       <c r="A5" s="15" t="s">
+        <v>637</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>639</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>702</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>640</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>641</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>470</v>
@@ -10086,15 +10086,15 @@
     </row>
     <row r="6" spans="1:13" s="23" customFormat="1">
       <c r="A6" s="15" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>64</v>
@@ -10115,15 +10115,15 @@
     </row>
     <row r="7" spans="1:13" s="23" customFormat="1">
       <c r="A7" s="15" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>64</v>
@@ -10144,15 +10144,15 @@
     </row>
     <row r="8" spans="1:13" s="23" customFormat="1">
       <c r="A8" s="15" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>64</v>
@@ -10173,15 +10173,15 @@
     </row>
     <row r="9" spans="1:13" s="23" customFormat="1">
       <c r="A9" s="15" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>64</v>
@@ -10202,12 +10202,12 @@
     </row>
     <row r="10" spans="1:13" s="23" customFormat="1">
       <c r="A10" s="15" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>470</v>
@@ -10231,12 +10231,12 @@
     </row>
     <row r="11" spans="1:13" s="23" customFormat="1">
       <c r="A11" s="15" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>470</v>
@@ -10260,12 +10260,12 @@
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1">
       <c r="A12" s="15" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>470</v>
@@ -10289,12 +10289,12 @@
     </row>
     <row r="13" spans="1:13" s="23" customFormat="1">
       <c r="A13" s="15" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>470</v>
@@ -10318,12 +10318,12 @@
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1">
       <c r="A14" s="15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>470</v>
@@ -10347,12 +10347,12 @@
     </row>
     <row r="15" spans="1:13" s="22" customFormat="1">
       <c r="A15" s="15" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>470</v>
@@ -10376,12 +10376,12 @@
     </row>
     <row r="16" spans="1:13" s="22" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>470</v>
@@ -10405,12 +10405,12 @@
     </row>
     <row r="17" spans="1:13" s="22" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>470</v>
@@ -10434,12 +10434,12 @@
     </row>
     <row r="18" spans="1:13" s="22" customFormat="1">
       <c r="A18" s="15" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>470</v>
@@ -10463,12 +10463,12 @@
     </row>
     <row r="19" spans="1:13" s="22" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>470</v>
@@ -10492,12 +10492,12 @@
     </row>
     <row r="20" spans="1:13" s="22" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>470</v>
@@ -10521,12 +10521,12 @@
     </row>
     <row r="21" spans="1:13" s="23" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>470</v>
@@ -10550,12 +10550,12 @@
     </row>
     <row r="22" spans="1:13" s="23" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>470</v>
@@ -10579,12 +10579,12 @@
     </row>
     <row r="23" spans="1:13" s="23" customFormat="1">
       <c r="A23" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>470</v>
@@ -10608,15 +10608,15 @@
     </row>
     <row r="24" spans="1:13" s="23" customFormat="1">
       <c r="A24" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>64</v>
@@ -19103,7 +19103,7 @@
         <v>439</v>
       </c>
       <c r="D1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -19111,19 +19111,19 @@
     </row>
     <row r="2" spans="1:7" s="22" customFormat="1">
       <c r="A2" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>644</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>645</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>646</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>647</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>648</v>
-      </c>
       <c r="E2" s="22" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="22" customFormat="1">
@@ -19137,10 +19137,10 @@
         <v>594</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="22" customFormat="1">
@@ -19154,10 +19154,10 @@
         <v>596</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="22" customFormat="1">
@@ -19171,10 +19171,10 @@
         <v>598</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="22" customFormat="1">
@@ -19188,10 +19188,10 @@
         <v>600</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="22" customFormat="1">
@@ -19205,10 +19205,10 @@
         <v>602</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="22" customFormat="1">
@@ -19222,10 +19222,10 @@
         <v>603</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="22" customFormat="1">
@@ -19239,10 +19239,10 @@
         <v>605</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -19250,50 +19250,50 @@
         <v>606</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>607</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="22" customFormat="1">
       <c r="A11" s="22" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>446</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="22" customFormat="1">
       <c r="A12" s="22" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="22" customFormat="1"/>

--- a/projects/template_nsga.xlsx
+++ b/projects/template_nsga.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19840" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outputs!$A$2:$H$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$3</definedName>
-    <definedName name="AnalysisType">Lookups!$A$21:$A$27</definedName>
+    <definedName name="AnalysisType">Lookups!$A$21:$A$29</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$E$12</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$12</definedName>
     <definedName name="nsga">Lookups!$O$22:$P$28</definedName>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$16:$C$17</definedName>
     <definedName name="Workflow">Lookups!$E$16:$E$17</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="748">
   <si>
     <t>type</t>
   </si>
@@ -2269,6 +2269,21 @@
   </si>
   <si>
     <t>0.4.2</t>
+  </si>
+  <si>
+    <t>single_run</t>
+  </si>
+  <si>
+    <t>repeat_run</t>
+  </si>
+  <si>
+    <t>Number of Runs</t>
+  </si>
+  <si>
+    <t>Exit On Guideline14</t>
+  </si>
+  <si>
+    <t>0 false / 1 true (for use with calibration report)</t>
   </si>
 </sst>
 </file>
@@ -5865,19 +5880,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="33.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41.44140625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="33.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="61.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" s="20"/>
       <c r="C1" s="12"/>
@@ -5887,7 +5904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1">
+    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>435</v>
       </c>
@@ -5897,7 +5914,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -5908,7 +5925,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>458</v>
       </c>
@@ -5919,7 +5936,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="42">
+    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>471</v>
       </c>
@@ -5930,7 +5947,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="46" customHeight="1">
+    <row r="6" spans="1:6" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>472</v>
       </c>
@@ -5941,7 +5958,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -5964,12 +5981,12 @@
         <v>609</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>440</v>
+        <v>606</v>
       </c>
       <c r="C8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,5,FALSE)</f>
@@ -5977,17 +5994,17 @@
       </c>
       <c r="D8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
-        <v>8 Cores with 80 GB</v>
+        <v>32 Cores with 320 GB</v>
       </c>
       <c r="E8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
-        <v>$0.42/hour</v>
+        <v>$1.68/hour</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>460</v>
       </c>
@@ -6000,13 +6017,13 @@
       </c>
       <c r="E9" s="24" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
-        <v>$0.7/hour</v>
+        <v>$1.96/hour</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="23" customFormat="1" ht="28">
+    <row r="10" spans="1:6" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>727</v>
       </c>
@@ -6020,7 +6037,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="7" customFormat="1">
+    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
@@ -6030,7 +6047,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -6041,7 +6058,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -6052,7 +6069,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -6063,7 +6080,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>464</v>
       </c>
@@ -6074,7 +6091,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>465</v>
       </c>
@@ -6085,7 +6102,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -6096,7 +6113,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>468</v>
       </c>
@@ -6107,7 +6124,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="42">
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
@@ -6121,20 +6138,20 @@
         <v>457</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>453</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="23" customFormat="1">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="18"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="42">
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>451</v>
       </c>
@@ -6152,182 +6169,192 @@
         <v>457</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>Number of Samples</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
+        <v>epsilonGradient</v>
       </c>
       <c r="B25" s="18">
-        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>30</v>
+        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
+        <v>0.01</v>
       </c>
       <c r="C25" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
-        <v>Size of initial population</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
+        <v>epsilon in gradient calculation</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="23"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>Generations</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
+        <v>pgtol</v>
       </c>
       <c r="B26" s="18">
-        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>3</v>
+        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
+        <v>0.01</v>
       </c>
       <c r="C26" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
-        <v>Number of generations</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
+        <v>tolerance on the projected gradient</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="23"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>cprob</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
+        <v>factr</v>
       </c>
       <c r="B27" s="18">
-        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>0.85</v>
+        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
+        <v>45036000000000</v>
       </c>
       <c r="C27" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
-        <v>Crossover probability [0,1]</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
+        <v>Tolerance on delta_F</v>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="23"/>
     </row>
-    <row r="28" spans="1:6" s="23" customFormat="1" ht="42">
+    <row r="28" spans="1:6" s="23" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>XoverDistIdx</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
+        <v>maxit</v>
       </c>
       <c r="B28" s="18">
-        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>2</v>
+        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
+        <v>100</v>
       </c>
       <c r="C28" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
-        <v>Crossover Distribution Index (large values give higher probabilities of offspring close to parent)</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
+        <v>Maximum number of iterations</v>
       </c>
       <c r="D28" s="27"/>
     </row>
-    <row r="29" spans="1:6" s="23" customFormat="1" ht="42">
+    <row r="29" spans="1:6" s="23" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>MuDistIdx</v>
-      </c>
-      <c r="B29" s="18">
-        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>2</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
+        <v>normType</v>
+      </c>
+      <c r="B29" s="18" t="str">
+        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
+        <v>minkowski</v>
       </c>
       <c r="C29" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
-        <v>Mutation Distribution Index (large values give higher probabilities of offspring close to parent)</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
+        <v/>
       </c>
       <c r="D29" s="27"/>
     </row>
-    <row r="30" spans="1:6" s="23" customFormat="1">
+    <row r="30" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>mprob</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
+        <v>pPower</v>
       </c>
       <c r="B30" s="18">
-        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>0.8</v>
+        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
+        <v>2</v>
       </c>
       <c r="C30" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
-        <v>Mutation probability [0,1]</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
+        <v>Lp norm power</v>
       </c>
       <c r="D30" s="27"/>
     </row>
-    <row r="31" spans="1:6" s="23" customFormat="1">
+    <row r="31" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>normType</v>
-      </c>
-      <c r="B31" s="18" t="str">
-        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>minkowski</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
+        <v>Exit On Guideline14</v>
+      </c>
+      <c r="B31" s="18">
+        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
+        <v>0</v>
       </c>
       <c r="C31" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
+        <v>0 false / 1 true (for use with calibration report)</v>
+      </c>
+      <c r="D31" s="27"/>
+    </row>
+    <row r="32" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="23" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v/>
       </c>
-      <c r="D31" s="27"/>
-    </row>
-    <row r="32" spans="1:6" s="23" customFormat="1">
-      <c r="A32" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
-        <v>pPower</v>
-      </c>
-      <c r="B32" s="18">
-        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>2</v>
+      <c r="B32" s="18" t="str">
+        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
+        <v/>
       </c>
       <c r="C32" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
-        <v>Lp norm power</v>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
+        <v/>
       </c>
       <c r="D32" s="27"/>
     </row>
-    <row r="33" spans="1:6" s="23" customFormat="1">
+    <row r="33" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v/>
       </c>
       <c r="B33" s="18" t="str">
-        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v/>
       </c>
       <c r="C33" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v/>
       </c>
       <c r="D33" s="27"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v/>
       </c>
       <c r="B34" s="18" t="str">
-        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$21:$AC$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v/>
       </c>
       <c r="C34" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v/>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="23"/>
     </row>
-    <row r="35" spans="1:6" s="23" customFormat="1">
+    <row r="35" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v/>
       </c>
       <c r="B35" s="18" t="str">
-        <f>IF(D35&lt;&gt;"",D35,IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D35&lt;&gt;"",D35,IF(LEN(INDEX(Lookups!$C$21:$AC$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v/>
       </c>
       <c r="C35" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v/>
       </c>
       <c r="D35" s="27"/>
     </row>
-    <row r="36" spans="1:6" s="23" customFormat="1">
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
+    <row r="36" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="23" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$32,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$32,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B36" s="18" t="str">
+        <f>IF(D36&lt;&gt;"",D36,IF(LEN(INDEX(Lookups!$C$21:$AC$32,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$32,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C36" s="25" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$32,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$32,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
+        <v/>
+      </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" ht="28">
+    <row r="37" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>33</v>
       </c>
@@ -6341,7 +6368,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
@@ -6349,7 +6376,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" ht="28">
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>30</v>
       </c>
@@ -6367,7 +6394,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="28">
+    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="23" t="s">
         <v>32</v>
       </c>
@@ -6384,7 +6411,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" ht="56">
+    <row r="43" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>35</v>
       </c>
@@ -6400,7 +6427,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" ht="56">
+    <row r="46" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>730</v>
       </c>
@@ -6416,17 +6443,17 @@
         <v>733</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="2" customFormat="1">
+    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="25"/>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" s="23" customFormat="1">
+    <row r="48" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="18"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" ht="42">
+    <row r="49" spans="1:6" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>734</v>
       </c>
@@ -6475,35 +6502,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" style="23" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="1"/>
-    <col min="17" max="17" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="1"/>
+    <col min="17" max="17" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5" style="1"/>
-    <col min="20" max="20" width="46.1640625" style="1" customWidth="1"/>
-    <col min="21" max="23" width="11.5" style="1"/>
+    <col min="19" max="19" width="11.44140625" style="1"/>
+    <col min="20" max="20" width="46.109375" style="1" customWidth="1"/>
+    <col min="21" max="23" width="11.44140625" style="1"/>
     <col min="24" max="24" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.5" style="1"/>
+    <col min="25" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18">
+    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -6539,7 +6566,7 @@
       <c r="Y1" s="52"/>
       <c r="Z1" s="52"/>
     </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="15">
+    <row r="2" spans="1:26" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
@@ -6575,7 +6602,7 @@
       <c r="Y2" s="34"/>
       <c r="Z2" s="34"/>
     </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" ht="45">
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
@@ -6653,7 +6680,7 @@
       </c>
       <c r="Z3" s="35"/>
     </row>
-    <row r="4" spans="1:26" s="29" customFormat="1">
+    <row r="4" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="b">
         <v>1</v>
       </c>
@@ -6691,7 +6718,7 @@
       <c r="Y4" s="39"/>
       <c r="Z4" s="39"/>
     </row>
-    <row r="5" spans="1:26" s="22" customFormat="1">
+    <row r="5" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>21</v>
@@ -6731,7 +6758,7 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" s="28" customFormat="1">
+    <row r="6" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="42"/>
       <c r="B6" s="42" t="s">
         <v>22</v>
@@ -6779,7 +6806,7 @@
       <c r="Y6" s="42"/>
       <c r="Z6" s="42"/>
     </row>
-    <row r="7" spans="1:26" s="28" customFormat="1">
+    <row r="7" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>21</v>
@@ -6817,7 +6844,7 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" s="22" customFormat="1">
+    <row r="8" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>21</v>
@@ -6855,7 +6882,7 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" s="22" customFormat="1">
+    <row r="9" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
         <v>21</v>
@@ -6893,7 +6920,7 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" s="22" customFormat="1">
+    <row r="10" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
         <v>21</v>
@@ -6931,7 +6958,7 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" s="22" customFormat="1">
+    <row r="11" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>21</v>
@@ -6969,7 +6996,7 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" s="29" customFormat="1">
+    <row r="12" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>21</v>
@@ -7007,7 +7034,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" s="28" customFormat="1">
+    <row r="13" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
         <v>21</v>
@@ -7045,7 +7072,7 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" s="22" customFormat="1">
+    <row r="14" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="b">
         <v>1</v>
       </c>
@@ -7083,7 +7110,7 @@
       <c r="Y14" s="39"/>
       <c r="Z14" s="39"/>
     </row>
-    <row r="15" spans="1:26" s="22" customFormat="1">
+    <row r="15" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="42"/>
       <c r="B15" s="42" t="s">
         <v>22</v>
@@ -7131,7 +7158,7 @@
       <c r="Y15" s="42"/>
       <c r="Z15" s="42"/>
     </row>
-    <row r="16" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="16" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="45" t="b">
         <v>1</v>
       </c>
@@ -7169,7 +7196,7 @@
       <c r="Y16" s="39"/>
       <c r="Z16" s="39"/>
     </row>
-    <row r="17" spans="1:26" s="28" customFormat="1" ht="15">
+    <row r="17" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="46"/>
       <c r="B17" s="46" t="s">
         <v>22</v>
@@ -7217,7 +7244,7 @@
       <c r="Y17" s="42"/>
       <c r="Z17" s="42"/>
     </row>
-    <row r="18" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="18" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -7255,7 +7282,7 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
     </row>
-    <row r="19" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="19" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -7293,7 +7320,7 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
     </row>
-    <row r="20" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="20" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -7331,7 +7358,7 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
     </row>
-    <row r="21" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="21" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="b">
         <v>1</v>
       </c>
@@ -7369,7 +7396,7 @@
       <c r="Y21" s="39"/>
       <c r="Z21" s="39"/>
     </row>
-    <row r="22" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="22" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="46"/>
       <c r="B22" s="46" t="s">
         <v>22</v>
@@ -7421,7 +7448,7 @@
       <c r="Y22" s="42"/>
       <c r="Z22" s="42"/>
     </row>
-    <row r="23" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="23" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -7459,7 +7486,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="24" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -7497,7 +7524,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="25" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -7535,7 +7562,7 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
     </row>
-    <row r="26" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="26" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="45" t="b">
         <v>1</v>
       </c>
@@ -7573,7 +7600,7 @@
       <c r="Y26" s="39"/>
       <c r="Z26" s="39"/>
     </row>
-    <row r="27" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="27" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" s="46" t="s">
         <v>22</v>
@@ -7621,7 +7648,7 @@
       <c r="Y27" s="42"/>
       <c r="Z27" s="42"/>
     </row>
-    <row r="28" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="28" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -7659,7 +7686,7 @@
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
     </row>
-    <row r="29" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="29" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -7699,7 +7726,7 @@
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
     </row>
-    <row r="30" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="30" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="45" t="b">
         <v>1</v>
       </c>
@@ -7737,7 +7764,7 @@
       <c r="Y30" s="39"/>
       <c r="Z30" s="39"/>
     </row>
-    <row r="31" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="31" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" s="46" t="s">
         <v>22</v>
@@ -7785,7 +7812,7 @@
       <c r="Y31" s="42"/>
       <c r="Z31" s="42"/>
     </row>
-    <row r="32" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="32" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -7823,7 +7850,7 @@
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
     </row>
-    <row r="33" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="33" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -7863,7 +7890,7 @@
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
     </row>
-    <row r="34" spans="1:26" s="28" customFormat="1">
+    <row r="34" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="39" t="b">
         <v>1</v>
       </c>
@@ -7901,7 +7928,7 @@
       <c r="Y34" s="39"/>
       <c r="Z34" s="39"/>
     </row>
-    <row r="35" spans="1:26" s="22" customFormat="1">
+    <row r="35" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="42"/>
       <c r="B35" s="42" t="s">
         <v>22</v>
@@ -7951,7 +7978,7 @@
       <c r="Y35" s="42"/>
       <c r="Z35" s="42"/>
     </row>
-    <row r="36" spans="1:26" s="22" customFormat="1">
+    <row r="36" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="15" t="s">
         <v>21</v>
@@ -7991,7 +8018,7 @@
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
     </row>
-    <row r="37" spans="1:26" s="22" customFormat="1">
+    <row r="37" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="15" t="s">
         <v>21</v>
@@ -8029,7 +8056,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26" s="29" customFormat="1">
+    <row r="38" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
       <c r="B38" s="15" t="s">
         <v>21</v>
@@ -8067,7 +8094,7 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
     </row>
-    <row r="39" spans="1:26" s="28" customFormat="1" ht="15">
+    <row r="39" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="b">
         <v>1</v>
       </c>
@@ -8105,7 +8132,7 @@
       <c r="Y39" s="29"/>
       <c r="Z39" s="29"/>
     </row>
-    <row r="40" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="40" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="48"/>
       <c r="B40" s="48" t="s">
         <v>22</v>
@@ -8156,7 +8183,7 @@
       <c r="Y40" s="50"/>
       <c r="Z40" s="50"/>
     </row>
-    <row r="41" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="41" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="48"/>
       <c r="B41" s="48" t="s">
         <v>22</v>
@@ -8207,7 +8234,7 @@
       <c r="Y41" s="50"/>
       <c r="Z41" s="50"/>
     </row>
-    <row r="42" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="42" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -8230,7 +8257,7 @@
       <c r="J42" s="10"/>
       <c r="P42" s="23"/>
     </row>
-    <row r="43" spans="1:26" s="29" customFormat="1">
+    <row r="43" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="29" t="b">
         <v>1</v>
       </c>
@@ -8247,7 +8274,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="28" customFormat="1">
+    <row r="44" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="50"/>
       <c r="B44" s="50" t="s">
         <v>22</v>
@@ -8298,7 +8325,7 @@
       <c r="Y44" s="50"/>
       <c r="Z44" s="50"/>
     </row>
-    <row r="45" spans="1:26" s="22" customFormat="1">
+    <row r="45" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="b">
         <v>1</v>
       </c>
@@ -8336,7 +8363,7 @@
       <c r="Y45" s="29"/>
       <c r="Z45" s="29"/>
     </row>
-    <row r="46" spans="1:26" s="22" customFormat="1">
+    <row r="46" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="50"/>
       <c r="B46" s="50" t="s">
         <v>22</v>
@@ -8387,7 +8414,7 @@
       <c r="Y46" s="50"/>
       <c r="Z46" s="50"/>
     </row>
-    <row r="47" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="47" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="45" t="b">
         <v>1</v>
       </c>
@@ -8425,7 +8452,7 @@
       <c r="Y47" s="39"/>
       <c r="Z47" s="39"/>
     </row>
-    <row r="48" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="48" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>21</v>
@@ -8465,7 +8492,7 @@
       <c r="Y48" s="10"/>
       <c r="Z48" s="10"/>
     </row>
-    <row r="49" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="49" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>21</v>
@@ -8505,7 +8532,7 @@
       <c r="Y49" s="15"/>
       <c r="Z49" s="15"/>
     </row>
-    <row r="50" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="50" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -8533,7 +8560,7 @@
       <c r="Y50" s="15"/>
       <c r="Z50" s="15"/>
     </row>
-    <row r="51" spans="1:26" customFormat="1" ht="15">
+    <row r="51" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -8561,7 +8588,7 @@
       <c r="Y51" s="15"/>
       <c r="Z51" s="15"/>
     </row>
-    <row r="52" spans="1:26" customFormat="1" ht="15">
+    <row r="52" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -8589,7 +8616,7 @@
       <c r="Y52" s="15"/>
       <c r="Z52" s="15"/>
     </row>
-    <row r="53" spans="1:26" customFormat="1" ht="15">
+    <row r="53" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -8617,7 +8644,7 @@
       <c r="Y53" s="15"/>
       <c r="Z53" s="15"/>
     </row>
-    <row r="54" spans="1:26" customFormat="1" ht="15">
+    <row r="54" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -8645,7 +8672,7 @@
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
     </row>
-    <row r="55" spans="1:26" customFormat="1" ht="15">
+    <row r="55" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -8673,7 +8700,7 @@
       <c r="Y55" s="15"/>
       <c r="Z55" s="15"/>
     </row>
-    <row r="56" spans="1:26" ht="15">
+    <row r="56" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -8701,7 +8728,7 @@
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
     </row>
-    <row r="57" spans="1:26" customFormat="1" ht="15">
+    <row r="57" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -8729,7 +8756,7 @@
       <c r="Y57" s="15"/>
       <c r="Z57" s="15"/>
     </row>
-    <row r="58" spans="1:26" ht="15">
+    <row r="58" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="15"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -8757,7 +8784,7 @@
       <c r="Y58" s="15"/>
       <c r="Z58" s="15"/>
     </row>
-    <row r="59" spans="1:26" ht="15">
+    <row r="59" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -8785,7 +8812,7 @@
       <c r="Y59" s="15"/>
       <c r="Z59" s="15"/>
     </row>
-    <row r="60" spans="1:26" ht="15">
+    <row r="60" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -8813,7 +8840,7 @@
       <c r="Y60" s="15"/>
       <c r="Z60" s="15"/>
     </row>
-    <row r="61" spans="1:26" ht="15">
+    <row r="61" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="15"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -8841,7 +8868,7 @@
       <c r="Y61" s="15"/>
       <c r="Z61" s="15"/>
     </row>
-    <row r="62" spans="1:26" ht="15">
+    <row r="62" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -8869,7 +8896,7 @@
       <c r="Y62" s="15"/>
       <c r="Z62" s="15"/>
     </row>
-    <row r="63" spans="1:26" ht="15">
+    <row r="63" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -8897,7 +8924,7 @@
       <c r="Y63" s="15"/>
       <c r="Z63" s="15"/>
     </row>
-    <row r="64" spans="1:26" ht="15">
+    <row r="64" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="15"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -8925,7 +8952,7 @@
       <c r="Y64" s="15"/>
       <c r="Z64" s="15"/>
     </row>
-    <row r="65" spans="1:26" ht="15">
+    <row r="65" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -8953,7 +8980,7 @@
       <c r="Y65" s="15"/>
       <c r="Z65" s="15"/>
     </row>
-    <row r="66" spans="1:26" ht="15">
+    <row r="66" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -8981,7 +9008,7 @@
       <c r="Y66" s="15"/>
       <c r="Z66" s="15"/>
     </row>
-    <row r="67" spans="1:26" ht="15">
+    <row r="67" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="15"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -9009,7 +9036,7 @@
       <c r="Y67" s="15"/>
       <c r="Z67" s="15"/>
     </row>
-    <row r="68" spans="1:26" ht="15">
+    <row r="68" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -9037,7 +9064,7 @@
       <c r="Y68" s="15"/>
       <c r="Z68" s="15"/>
     </row>
-    <row r="69" spans="1:26" ht="15">
+    <row r="69" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -9065,7 +9092,7 @@
       <c r="Y69" s="15"/>
       <c r="Z69" s="15"/>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -9093,7 +9120,7 @@
       <c r="Y70" s="15"/>
       <c r="Z70" s="15"/>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -9121,7 +9148,7 @@
       <c r="Y71" s="15"/>
       <c r="Z71" s="15"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -9149,7 +9176,7 @@
       <c r="Y72" s="15"/>
       <c r="Z72" s="15"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -9177,7 +9204,7 @@
       <c r="Y73" s="15"/>
       <c r="Z73" s="15"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -9205,7 +9232,7 @@
       <c r="Y74" s="15"/>
       <c r="Z74" s="15"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -9233,7 +9260,7 @@
       <c r="Y75" s="15"/>
       <c r="Z75" s="15"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -9261,7 +9288,7 @@
       <c r="Y76" s="15"/>
       <c r="Z76" s="15"/>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -9289,7 +9316,7 @@
       <c r="Y77" s="15"/>
       <c r="Z77" s="15"/>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -9317,7 +9344,7 @@
       <c r="Y78" s="15"/>
       <c r="Z78" s="15"/>
     </row>
-    <row r="79" spans="1:26" ht="15">
+    <row r="79" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -9345,7 +9372,7 @@
       <c r="Y79" s="15"/>
       <c r="Z79" s="15"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -9373,7 +9400,7 @@
       <c r="Y80" s="15"/>
       <c r="Z80" s="15"/>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -9401,7 +9428,7 @@
       <c r="Y81" s="15"/>
       <c r="Z81" s="15"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -9429,7 +9456,7 @@
       <c r="Y82" s="15"/>
       <c r="Z82" s="15"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -9457,7 +9484,7 @@
       <c r="Y83" s="15"/>
       <c r="Z83" s="15"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -9485,7 +9512,7 @@
       <c r="Y84" s="15"/>
       <c r="Z84" s="15"/>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -9513,7 +9540,7 @@
       <c r="Y85" s="15"/>
       <c r="Z85" s="15"/>
     </row>
-    <row r="86" spans="1:26" ht="15">
+    <row r="86" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="10"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
@@ -9541,7 +9568,7 @@
       <c r="Y86" s="15"/>
       <c r="Z86" s="15"/>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="15"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -9569,7 +9596,7 @@
       <c r="Y87" s="15"/>
       <c r="Z87" s="15"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -9597,7 +9624,7 @@
       <c r="Y88" s="15"/>
       <c r="Z88" s="15"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -9625,7 +9652,7 @@
       <c r="Y89" s="15"/>
       <c r="Z89" s="15"/>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -9653,7 +9680,7 @@
       <c r="Y90" s="15"/>
       <c r="Z90" s="15"/>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -9681,7 +9708,7 @@
       <c r="Y91" s="15"/>
       <c r="Z91" s="15"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -9709,7 +9736,7 @@
       <c r="Y92" s="15"/>
       <c r="Z92" s="15"/>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -9737,7 +9764,7 @@
       <c r="Y93" s="15"/>
       <c r="Z93" s="15"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -9765,7 +9792,7 @@
       <c r="Y94" s="15"/>
       <c r="Z94" s="15"/>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -9793,7 +9820,7 @@
       <c r="Y95" s="15"/>
       <c r="Z95" s="15"/>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -9821,7 +9848,7 @@
       <c r="Y96" s="15"/>
       <c r="Z96" s="15"/>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -9849,7 +9876,7 @@
       <c r="Y97" s="15"/>
       <c r="Z97" s="15"/>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -9901,25 +9928,25 @@
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="1"/>
+    <col min="13" max="13" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="23" customFormat="1" ht="18">
+    <row r="1" spans="1:13" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -9936,7 +9963,7 @@
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="15">
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>461</v>
       </c>
@@ -9975,7 +10002,7 @@
       </c>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="45">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>627</v>
       </c>
@@ -10014,7 +10041,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="23" customFormat="1">
+    <row r="4" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>634</v>
       </c>
@@ -10049,7 +10076,7 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13" s="23" customFormat="1">
+    <row r="5" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>637</v>
       </c>
@@ -10084,7 +10111,7 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" s="23" customFormat="1">
+    <row r="6" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>661</v>
       </c>
@@ -10113,7 +10140,7 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13" s="23" customFormat="1">
+    <row r="7" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>663</v>
       </c>
@@ -10142,7 +10169,7 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:13" s="23" customFormat="1">
+    <row r="8" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>664</v>
       </c>
@@ -10171,7 +10198,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:13" s="23" customFormat="1">
+    <row r="9" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>665</v>
       </c>
@@ -10200,7 +10227,7 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" s="23" customFormat="1">
+    <row r="10" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>667</v>
       </c>
@@ -10229,7 +10256,7 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:13" s="23" customFormat="1">
+    <row r="11" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>669</v>
       </c>
@@ -10258,7 +10285,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:13" s="23" customFormat="1">
+    <row r="12" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>671</v>
       </c>
@@ -10287,7 +10314,7 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:13" s="23" customFormat="1">
+    <row r="13" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>673</v>
       </c>
@@ -10316,7 +10343,7 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:13" s="23" customFormat="1">
+    <row r="14" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>675</v>
       </c>
@@ -10345,7 +10372,7 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:13" s="22" customFormat="1">
+    <row r="15" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>677</v>
       </c>
@@ -10374,7 +10401,7 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:13" s="22" customFormat="1">
+    <row r="16" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>679</v>
       </c>
@@ -10403,7 +10430,7 @@
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13" s="22" customFormat="1">
+    <row r="17" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>681</v>
       </c>
@@ -10432,7 +10459,7 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13" s="22" customFormat="1">
+    <row r="18" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>683</v>
       </c>
@@ -10461,7 +10488,7 @@
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13" s="22" customFormat="1">
+    <row r="19" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>685</v>
       </c>
@@ -10490,7 +10517,7 @@
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="1:13" s="22" customFormat="1">
+    <row r="20" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>687</v>
       </c>
@@ -10519,7 +10546,7 @@
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="1:13" s="23" customFormat="1">
+    <row r="21" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>689</v>
       </c>
@@ -10548,7 +10575,7 @@
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="1:13" s="23" customFormat="1">
+    <row r="22" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>691</v>
       </c>
@@ -10577,7 +10604,7 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:13" s="23" customFormat="1">
+    <row r="23" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>693</v>
       </c>
@@ -10606,7 +10633,7 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:13" s="23" customFormat="1">
+    <row r="24" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>695</v>
       </c>
@@ -10635,7 +10662,7 @@
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -10650,7 +10677,7 @@
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -10665,7 +10692,7 @@
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -10680,7 +10707,7 @@
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -10695,202 +10722,202 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B29" s="22"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B30" s="22"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B31" s="22"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B32" s="22"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="22"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="22"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="22"/>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="22"/>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="22"/>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="22"/>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="22"/>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="22"/>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="22"/>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="22"/>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="22"/>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="22"/>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="22"/>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="22"/>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="22"/>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="22"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="22"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="22"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="22"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="22"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="22"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="22"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="22"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="22"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="22"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="22"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="22"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="22"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="22"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="22"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="22"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="22"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="22"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="22"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="22"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="22"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="22"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="22"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="22"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="22"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="22"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="22"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="22"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="22"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="22"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="22"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="22"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="22"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="22"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="22"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="22"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="22"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="22"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="22"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="22"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="22"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="22"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="22"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="22"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="22"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="22"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="22"/>
     </row>
   </sheetData>
@@ -10912,19 +10939,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="b">
         <v>0</v>
       </c>
@@ -10943,7 +10970,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>21</v>
@@ -10964,7 +10991,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
         <v>21</v>
@@ -10987,7 +11014,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>21</v>
@@ -11010,7 +11037,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
         <v>21</v>
@@ -11033,7 +11060,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>21</v>
@@ -11056,7 +11083,7 @@
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>21</v>
@@ -11079,7 +11106,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>21</v>
@@ -11102,7 +11129,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>21</v>
@@ -11125,7 +11152,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>21</v>
@@ -11148,7 +11175,7 @@
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="b">
         <v>0</v>
       </c>
@@ -11167,7 +11194,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>21</v>
@@ -11188,7 +11215,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>21</v>
@@ -11211,7 +11238,7 @@
       </c>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>21</v>
@@ -11234,7 +11261,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
@@ -11257,7 +11284,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>21</v>
@@ -11280,7 +11307,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>21</v>
@@ -11303,7 +11330,7 @@
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -11326,7 +11353,7 @@
       </c>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -11349,7 +11376,7 @@
       </c>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -11372,7 +11399,7 @@
       </c>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="b">
         <v>0</v>
       </c>
@@ -11391,7 +11418,7 @@
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>21</v>
@@ -11414,7 +11441,7 @@
       </c>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -11437,7 +11464,7 @@
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -11460,7 +11487,7 @@
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -11483,7 +11510,7 @@
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>21</v>
@@ -11506,7 +11533,7 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>21</v>
@@ -11529,7 +11556,7 @@
       </c>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -11552,7 +11579,7 @@
       </c>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -11575,7 +11602,7 @@
       </c>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>21</v>
@@ -11598,7 +11625,7 @@
       </c>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="b">
         <v>0</v>
       </c>
@@ -11617,7 +11644,7 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -11638,7 +11665,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -11661,7 +11688,7 @@
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
         <v>21</v>
@@ -11684,7 +11711,7 @@
       </c>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
         <v>21</v>
@@ -11707,7 +11734,7 @@
       </c>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>21</v>
@@ -11730,7 +11757,7 @@
       </c>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
         <v>21</v>
@@ -11753,7 +11780,7 @@
       </c>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>21</v>
@@ -11776,7 +11803,7 @@
       </c>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
         <v>21</v>
@@ -11799,7 +11826,7 @@
       </c>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
         <v>21</v>
@@ -11822,7 +11849,7 @@
       </c>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="b">
         <v>0</v>
       </c>
@@ -11841,7 +11868,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -11862,7 +11889,7 @@
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>21</v>
@@ -11885,7 +11912,7 @@
       </c>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>21</v>
@@ -11908,7 +11935,7 @@
       </c>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
         <v>21</v>
@@ -11931,7 +11958,7 @@
       </c>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
         <v>21</v>
@@ -11954,7 +11981,7 @@
       </c>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
         <v>21</v>
@@ -11977,7 +12004,7 @@
       </c>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>21</v>
@@ -12000,7 +12027,7 @@
       </c>
       <c r="I48" s="10"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>21</v>
@@ -12023,7 +12050,7 @@
       </c>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>21</v>
@@ -12046,7 +12073,7 @@
       </c>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="b">
         <v>0</v>
       </c>
@@ -12065,7 +12092,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>21</v>
@@ -12086,7 +12113,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>21</v>
@@ -12109,7 +12136,7 @@
       </c>
       <c r="I53" s="10"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>21</v>
@@ -12132,7 +12159,7 @@
       </c>
       <c r="I54" s="10"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>21</v>
@@ -12155,7 +12182,7 @@
       </c>
       <c r="I55" s="10"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>21</v>
@@ -12178,7 +12205,7 @@
       </c>
       <c r="I56" s="10"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>21</v>
@@ -12201,7 +12228,7 @@
       </c>
       <c r="I57" s="10"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
         <v>21</v>
@@ -12224,7 +12251,7 @@
       </c>
       <c r="I58" s="10"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>21</v>
@@ -12247,7 +12274,7 @@
       </c>
       <c r="I59" s="10"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>21</v>
@@ -12270,7 +12297,7 @@
       </c>
       <c r="I60" s="10"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="b">
         <v>0</v>
       </c>
@@ -12289,7 +12316,7 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
         <v>21</v>
@@ -12310,7 +12337,7 @@
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
         <v>21</v>
@@ -12335,7 +12362,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
         <v>21</v>
@@ -12358,7 +12385,7 @@
       </c>
       <c r="I64" s="10"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
         <v>21</v>
@@ -12381,7 +12408,7 @@
       </c>
       <c r="I65" s="10"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
         <v>21</v>
@@ -12404,7 +12431,7 @@
       </c>
       <c r="I66" s="10"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
       <c r="B67" s="10" t="s">
         <v>21</v>
@@ -12427,7 +12454,7 @@
       </c>
       <c r="I67" s="10"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
         <v>21</v>
@@ -12450,7 +12477,7 @@
       </c>
       <c r="I68" s="10"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>21</v>
@@ -12473,7 +12500,7 @@
       </c>
       <c r="I69" s="10"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>21</v>
@@ -12496,7 +12523,7 @@
       </c>
       <c r="I70" s="10"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
         <v>21</v>
@@ -12519,7 +12546,7 @@
       </c>
       <c r="I71" s="10"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="b">
         <v>0</v>
       </c>
@@ -12538,7 +12565,7 @@
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
         <v>21</v>
@@ -12559,7 +12586,7 @@
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
         <v>21</v>
@@ -12582,7 +12609,7 @@
       </c>
       <c r="I74" s="10"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
       <c r="B75" s="10" t="s">
         <v>21</v>
@@ -12607,7 +12634,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
       <c r="B76" s="10" t="s">
         <v>21</v>
@@ -12630,7 +12657,7 @@
       </c>
       <c r="I76" s="10"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
         <v>21</v>
@@ -12653,7 +12680,7 @@
       </c>
       <c r="I77" s="10"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
         <v>21</v>
@@ -12676,7 +12703,7 @@
       </c>
       <c r="I78" s="10"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
         <v>21</v>
@@ -12699,7 +12726,7 @@
       </c>
       <c r="I79" s="10"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
         <v>21</v>
@@ -12722,7 +12749,7 @@
       </c>
       <c r="I80" s="10"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
       <c r="B81" s="10" t="s">
         <v>21</v>
@@ -12745,7 +12772,7 @@
       </c>
       <c r="I81" s="10"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
         <v>21</v>
@@ -12768,7 +12795,7 @@
       </c>
       <c r="I82" s="10"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
         <v>21</v>
@@ -12791,7 +12818,7 @@
       </c>
       <c r="I83" s="10"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>21</v>
@@ -12814,7 +12841,7 @@
       </c>
       <c r="I84" s="10"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
         <v>21</v>
@@ -12837,7 +12864,7 @@
       </c>
       <c r="I85" s="10"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="b">
         <v>0</v>
       </c>
@@ -12856,7 +12883,7 @@
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>21</v>
@@ -12879,7 +12906,7 @@
       </c>
       <c r="I87" s="10"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>21</v>
@@ -12902,7 +12929,7 @@
       </c>
       <c r="I88" s="10"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>21</v>
@@ -12925,7 +12952,7 @@
       </c>
       <c r="I89" s="10"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
       <c r="B90" s="10" t="s">
         <v>21</v>
@@ -12948,7 +12975,7 @@
       </c>
       <c r="I90" s="10"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
       <c r="B91" s="10" t="s">
         <v>21</v>
@@ -12971,7 +12998,7 @@
       </c>
       <c r="I91" s="10"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
       <c r="B92" s="10" t="s">
         <v>21</v>
@@ -12994,7 +13021,7 @@
       </c>
       <c r="I92" s="10"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
         <v>21</v>
@@ -13017,7 +13044,7 @@
       </c>
       <c r="I93" s="10"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
       <c r="B94" s="10" t="s">
         <v>21</v>
@@ -13040,7 +13067,7 @@
       </c>
       <c r="I94" s="10"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="10"/>
       <c r="B95" s="10" t="s">
         <v>21</v>
@@ -13063,7 +13090,7 @@
       </c>
       <c r="I95" s="10"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
         <v>21</v>
@@ -13086,7 +13113,7 @@
       </c>
       <c r="I96" s="10"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="b">
         <v>0</v>
       </c>
@@ -13105,7 +13132,7 @@
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>21</v>
@@ -13130,7 +13157,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="b">
         <v>0</v>
       </c>
@@ -13149,7 +13176,7 @@
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
         <v>21</v>
@@ -13170,7 +13197,7 @@
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
         <v>21</v>
@@ -13195,7 +13222,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="b">
         <v>0</v>
       </c>
@@ -13214,7 +13241,7 @@
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
         <v>21</v>
@@ -13237,7 +13264,7 @@
       </c>
       <c r="I103" s="10"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>21</v>
@@ -13262,7 +13289,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>21</v>
@@ -13285,7 +13312,7 @@
       </c>
       <c r="I105" s="10"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>21</v>
@@ -13306,7 +13333,7 @@
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="b">
         <v>0</v>
       </c>
@@ -13325,7 +13352,7 @@
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="10"/>
       <c r="B108" s="10" t="s">
         <v>21</v>
@@ -13350,7 +13377,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
         <v>21</v>
@@ -13373,7 +13400,7 @@
       </c>
       <c r="I109" s="10"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="s">
         <v>21</v>
@@ -13396,7 +13423,7 @@
       </c>
       <c r="I110" s="10"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
         <v>21</v>
@@ -13419,7 +13446,7 @@
       </c>
       <c r="I111" s="10"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
         <v>21</v>
@@ -13442,7 +13469,7 @@
       </c>
       <c r="I112" s="10"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
         <v>21</v>
@@ -13465,7 +13492,7 @@
       </c>
       <c r="I113" s="10"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="10"/>
       <c r="B114" s="10" t="s">
         <v>21</v>
@@ -13488,7 +13515,7 @@
       </c>
       <c r="I114" s="10"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="b">
         <v>0</v>
       </c>
@@ -13507,7 +13534,7 @@
       <c r="H115" s="10"/>
       <c r="I115" s="10"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
         <v>21</v>
@@ -13530,7 +13557,7 @@
       </c>
       <c r="I116" s="10"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
         <v>21</v>
@@ -13553,7 +13580,7 @@
       </c>
       <c r="I117" s="10"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
         <v>21</v>
@@ -13576,7 +13603,7 @@
       </c>
       <c r="I118" s="10"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="b">
         <v>0</v>
       </c>
@@ -13595,7 +13622,7 @@
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="10"/>
       <c r="B120" s="10" t="s">
         <v>21</v>
@@ -13618,7 +13645,7 @@
       </c>
       <c r="I120" s="10"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="10"/>
       <c r="B121" s="10" t="s">
         <v>21</v>
@@ -13641,7 +13668,7 @@
       </c>
       <c r="I121" s="10"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="10"/>
       <c r="B122" s="10" t="s">
         <v>21</v>
@@ -13664,7 +13691,7 @@
       </c>
       <c r="I122" s="10"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="10"/>
       <c r="B123" s="10" t="s">
         <v>21</v>
@@ -13687,7 +13714,7 @@
       </c>
       <c r="I123" s="10"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="10"/>
       <c r="B124" s="10" t="s">
         <v>21</v>
@@ -13710,7 +13737,7 @@
       </c>
       <c r="I124" s="10"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="10"/>
       <c r="B125" s="10" t="s">
         <v>21</v>
@@ -13733,7 +13760,7 @@
       </c>
       <c r="I125" s="10"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="b">
         <v>0</v>
       </c>
@@ -13752,7 +13779,7 @@
       <c r="H126" s="10"/>
       <c r="I126" s="10"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="10"/>
       <c r="B127" s="10" t="s">
         <v>21</v>
@@ -13777,7 +13804,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="10"/>
       <c r="B128" s="10" t="s">
         <v>21</v>
@@ -13800,7 +13827,7 @@
       </c>
       <c r="I128" s="10"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="10"/>
       <c r="B129" s="10" t="s">
         <v>21</v>
@@ -13823,7 +13850,7 @@
       </c>
       <c r="I129" s="10"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="10"/>
       <c r="B130" s="10" t="s">
         <v>21</v>
@@ -13846,7 +13873,7 @@
       </c>
       <c r="I130" s="10"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="10"/>
       <c r="B131" s="10" t="s">
         <v>21</v>
@@ -13869,7 +13896,7 @@
       </c>
       <c r="I131" s="10"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="10"/>
       <c r="B132" s="10" t="s">
         <v>21</v>
@@ -13892,7 +13919,7 @@
       </c>
       <c r="I132" s="10"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="10"/>
       <c r="B133" s="10" t="s">
         <v>21</v>
@@ -13915,7 +13942,7 @@
       </c>
       <c r="I133" s="10"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="10"/>
       <c r="B134" s="10" t="s">
         <v>21</v>
@@ -13938,7 +13965,7 @@
       </c>
       <c r="I134" s="10"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="10"/>
       <c r="B135" s="10" t="s">
         <v>21</v>
@@ -13961,7 +13988,7 @@
       </c>
       <c r="I135" s="10"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="b">
         <v>0</v>
       </c>
@@ -13980,7 +14007,7 @@
       <c r="H136" s="10"/>
       <c r="I136" s="10"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="10"/>
       <c r="B137" s="10" t="s">
         <v>21</v>
@@ -14005,7 +14032,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="10"/>
       <c r="B138" s="10" t="s">
         <v>21</v>
@@ -14026,7 +14053,7 @@
       <c r="H138" s="10"/>
       <c r="I138" s="10"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="10"/>
       <c r="B139" s="10" t="s">
         <v>21</v>
@@ -14049,7 +14076,7 @@
       </c>
       <c r="I139" s="10"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="10"/>
       <c r="B140" s="10" t="s">
         <v>21</v>
@@ -14072,7 +14099,7 @@
       </c>
       <c r="I140" s="10"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="10"/>
       <c r="B141" s="10" t="s">
         <v>21</v>
@@ -14095,7 +14122,7 @@
       </c>
       <c r="I141" s="10"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="10"/>
       <c r="B142" s="10" t="s">
         <v>21</v>
@@ -14118,7 +14145,7 @@
       </c>
       <c r="I142" s="10"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="10"/>
       <c r="B143" s="10" t="s">
         <v>21</v>
@@ -14141,7 +14168,7 @@
       </c>
       <c r="I143" s="10"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="10"/>
       <c r="B144" s="10" t="s">
         <v>21</v>
@@ -14164,7 +14191,7 @@
       </c>
       <c r="I144" s="10"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="10"/>
       <c r="B145" s="10" t="s">
         <v>21</v>
@@ -14187,7 +14214,7 @@
       </c>
       <c r="I145" s="10"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="10"/>
       <c r="B146" s="10" t="s">
         <v>21</v>
@@ -14210,7 +14237,7 @@
       </c>
       <c r="I146" s="10"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="10"/>
       <c r="B147" s="10" t="s">
         <v>21</v>
@@ -14233,7 +14260,7 @@
       </c>
       <c r="I147" s="10"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="10"/>
       <c r="B148" s="10" t="s">
         <v>21</v>
@@ -14256,7 +14283,7 @@
       </c>
       <c r="I148" s="10"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="10"/>
       <c r="B149" s="10" t="s">
         <v>21</v>
@@ -14279,7 +14306,7 @@
       </c>
       <c r="I149" s="10"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="10"/>
       <c r="B150" s="10" t="s">
         <v>21</v>
@@ -14302,7 +14329,7 @@
       </c>
       <c r="I150" s="10"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="b">
         <v>0</v>
       </c>
@@ -14321,7 +14348,7 @@
       <c r="H151" s="10"/>
       <c r="I151" s="10"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="10"/>
       <c r="B152" s="10" t="s">
         <v>21</v>
@@ -14344,7 +14371,7 @@
       </c>
       <c r="I152" s="10"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="b">
         <v>0</v>
       </c>
@@ -14363,7 +14390,7 @@
       <c r="H153" s="10"/>
       <c r="I153" s="10"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="10"/>
       <c r="B154" s="10" t="s">
         <v>21</v>
@@ -14386,7 +14413,7 @@
       </c>
       <c r="I154" s="10"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="10"/>
       <c r="B155" s="10" t="s">
         <v>21</v>
@@ -14409,7 +14436,7 @@
       </c>
       <c r="I155" s="10"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="b">
         <v>0</v>
       </c>
@@ -14428,7 +14455,7 @@
       <c r="H156" s="10"/>
       <c r="I156" s="10"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="10"/>
       <c r="B157" s="10" t="s">
         <v>21</v>
@@ -14453,7 +14480,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="10"/>
       <c r="B158" s="10" t="s">
         <v>21</v>
@@ -14476,7 +14503,7 @@
       </c>
       <c r="I158" s="10"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="10"/>
       <c r="B159" s="10" t="s">
         <v>21</v>
@@ -14499,7 +14526,7 @@
       </c>
       <c r="I159" s="10"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="10"/>
       <c r="B160" s="10" t="s">
         <v>21</v>
@@ -14522,7 +14549,7 @@
       </c>
       <c r="I160" s="10"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="10"/>
       <c r="B161" s="10" t="s">
         <v>21</v>
@@ -14545,7 +14572,7 @@
       </c>
       <c r="I161" s="10"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="10"/>
       <c r="B162" s="10" t="s">
         <v>21</v>
@@ -14568,7 +14595,7 @@
       </c>
       <c r="I162" s="10"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
       <c r="B163" s="10" t="s">
         <v>21</v>
@@ -14591,7 +14618,7 @@
       </c>
       <c r="I163" s="10"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="10"/>
       <c r="B164" s="10" t="s">
         <v>21</v>
@@ -14614,7 +14641,7 @@
       </c>
       <c r="I164" s="10"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="10"/>
       <c r="B165" s="10" t="s">
         <v>21</v>
@@ -14637,7 +14664,7 @@
       </c>
       <c r="I165" s="10"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="10"/>
       <c r="B166" s="10" t="s">
         <v>21</v>
@@ -14660,7 +14687,7 @@
       </c>
       <c r="I166" s="10"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="b">
         <v>0</v>
       </c>
@@ -14679,7 +14706,7 @@
       <c r="H167" s="10"/>
       <c r="I167" s="10"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="10"/>
       <c r="B168" s="10" t="s">
         <v>21</v>
@@ -14704,7 +14731,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="10"/>
       <c r="B169" s="10" t="s">
         <v>21</v>
@@ -14727,7 +14754,7 @@
       </c>
       <c r="I169" s="10"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="10"/>
       <c r="B170" s="10" t="s">
         <v>21</v>
@@ -14750,7 +14777,7 @@
       </c>
       <c r="I170" s="10"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="10"/>
       <c r="B171" s="10" t="s">
         <v>21</v>
@@ -14773,7 +14800,7 @@
       </c>
       <c r="I171" s="10"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="10"/>
       <c r="B172" s="10" t="s">
         <v>21</v>
@@ -14796,7 +14823,7 @@
       </c>
       <c r="I172" s="10"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="10"/>
       <c r="B173" s="10" t="s">
         <v>21</v>
@@ -14819,7 +14846,7 @@
       </c>
       <c r="I173" s="10"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="10"/>
       <c r="B174" s="10" t="s">
         <v>21</v>
@@ -14842,7 +14869,7 @@
       </c>
       <c r="I174" s="10"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="10"/>
       <c r="B175" s="10" t="s">
         <v>21</v>
@@ -14865,7 +14892,7 @@
       </c>
       <c r="I175" s="10"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="10"/>
       <c r="B176" s="10" t="s">
         <v>21</v>
@@ -14888,7 +14915,7 @@
       </c>
       <c r="I176" s="10"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="10"/>
       <c r="B177" s="10" t="s">
         <v>21</v>
@@ -14911,7 +14938,7 @@
       </c>
       <c r="I177" s="10"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="10" t="b">
         <v>0</v>
       </c>
@@ -14930,7 +14957,7 @@
       <c r="H178" s="10"/>
       <c r="I178" s="10"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="10"/>
       <c r="B179" s="10" t="s">
         <v>21</v>
@@ -14953,7 +14980,7 @@
       </c>
       <c r="I179" s="10"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="10"/>
       <c r="B180" s="10" t="s">
         <v>21</v>
@@ -14976,7 +15003,7 @@
       </c>
       <c r="I180" s="10"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="10"/>
       <c r="B181" s="10" t="s">
         <v>21</v>
@@ -14999,7 +15026,7 @@
       </c>
       <c r="I181" s="10"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="10"/>
       <c r="B182" s="10" t="s">
         <v>21</v>
@@ -15022,7 +15049,7 @@
       </c>
       <c r="I182" s="10"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="10" t="b">
         <v>0</v>
       </c>
@@ -15041,7 +15068,7 @@
       <c r="H183" s="10"/>
       <c r="I183" s="10"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="10"/>
       <c r="B184" s="10" t="s">
         <v>21</v>
@@ -15064,7 +15091,7 @@
       </c>
       <c r="I184" s="10"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="10"/>
       <c r="B185" s="10" t="s">
         <v>21</v>
@@ -15087,7 +15114,7 @@
       </c>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="10"/>
       <c r="B186" s="10" t="s">
         <v>21</v>
@@ -15110,7 +15137,7 @@
       </c>
       <c r="I186" s="10"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="10"/>
       <c r="B187" s="10" t="s">
         <v>21</v>
@@ -15133,7 +15160,7 @@
       </c>
       <c r="I187" s="10"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="10" t="b">
         <v>0</v>
       </c>
@@ -15152,7 +15179,7 @@
       <c r="H188" s="10"/>
       <c r="I188" s="10"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="10"/>
       <c r="B189" s="10" t="s">
         <v>21</v>
@@ -15173,7 +15200,7 @@
       <c r="H189" s="10"/>
       <c r="I189" s="10"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="10"/>
       <c r="B190" s="10" t="s">
         <v>21</v>
@@ -15196,7 +15223,7 @@
       </c>
       <c r="I190" s="10"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="b">
         <v>0</v>
       </c>
@@ -15215,7 +15242,7 @@
       <c r="H191" s="10"/>
       <c r="I191" s="10"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="10"/>
       <c r="B192" s="10" t="s">
         <v>21</v>
@@ -15238,7 +15265,7 @@
       </c>
       <c r="I192" s="10"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="10"/>
       <c r="B193" s="10" t="s">
         <v>21</v>
@@ -15263,7 +15290,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="10"/>
       <c r="B194" s="10" t="s">
         <v>21</v>
@@ -15284,7 +15311,7 @@
       <c r="H194" s="10"/>
       <c r="I194" s="10"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="10"/>
       <c r="B195" s="10" t="s">
         <v>21</v>
@@ -15309,7 +15336,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="10"/>
       <c r="B196" s="10" t="s">
         <v>21</v>
@@ -15334,7 +15361,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="10" t="b">
         <v>0</v>
       </c>
@@ -15353,7 +15380,7 @@
       <c r="H197" s="10"/>
       <c r="I197" s="10"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="10"/>
       <c r="B198" s="10" t="s">
         <v>21</v>
@@ -15378,7 +15405,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="10"/>
       <c r="B199" s="10" t="s">
         <v>21</v>
@@ -15401,7 +15428,7 @@
       </c>
       <c r="I199" s="10"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="10"/>
       <c r="B200" s="10" t="s">
         <v>21</v>
@@ -15424,7 +15451,7 @@
       </c>
       <c r="I200" s="10"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="10"/>
       <c r="B201" s="10" t="s">
         <v>21</v>
@@ -15447,7 +15474,7 @@
       </c>
       <c r="I201" s="10"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="10"/>
       <c r="B202" s="10" t="s">
         <v>21</v>
@@ -15470,7 +15497,7 @@
       </c>
       <c r="I202" s="10"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="10"/>
       <c r="B203" s="10" t="s">
         <v>21</v>
@@ -15493,7 +15520,7 @@
       </c>
       <c r="I203" s="10"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="10"/>
       <c r="B204" s="10" t="s">
         <v>21</v>
@@ -15516,7 +15543,7 @@
       </c>
       <c r="I204" s="10"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="10"/>
       <c r="B205" s="10" t="s">
         <v>21</v>
@@ -15539,7 +15566,7 @@
       </c>
       <c r="I205" s="10"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="10"/>
       <c r="B206" s="10" t="s">
         <v>21</v>
@@ -15562,7 +15589,7 @@
       </c>
       <c r="I206" s="10"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="10" t="b">
         <v>0</v>
       </c>
@@ -15581,7 +15608,7 @@
       <c r="H207" s="10"/>
       <c r="I207" s="10"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="10"/>
       <c r="B208" s="10" t="s">
         <v>21</v>
@@ -15606,7 +15633,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="10"/>
       <c r="B209" s="10" t="s">
         <v>21</v>
@@ -15629,7 +15656,7 @@
       </c>
       <c r="I209" s="10"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="10"/>
       <c r="B210" s="10" t="s">
         <v>21</v>
@@ -15652,7 +15679,7 @@
       </c>
       <c r="I210" s="10"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="10"/>
       <c r="B211" s="10" t="s">
         <v>21</v>
@@ -15675,7 +15702,7 @@
       </c>
       <c r="I211" s="10"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="10"/>
       <c r="B212" s="10" t="s">
         <v>21</v>
@@ -15698,7 +15725,7 @@
       </c>
       <c r="I212" s="10"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="10"/>
       <c r="B213" s="10" t="s">
         <v>21</v>
@@ -15721,7 +15748,7 @@
       </c>
       <c r="I213" s="10"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="10"/>
       <c r="B214" s="10" t="s">
         <v>21</v>
@@ -15744,7 +15771,7 @@
       </c>
       <c r="I214" s="10"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="10"/>
       <c r="B215" s="10" t="s">
         <v>21</v>
@@ -15767,7 +15794,7 @@
       </c>
       <c r="I215" s="10"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="10"/>
       <c r="B216" s="10" t="s">
         <v>21</v>
@@ -15790,7 +15817,7 @@
       </c>
       <c r="I216" s="10"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="10" t="b">
         <v>0</v>
       </c>
@@ -15809,7 +15836,7 @@
       <c r="H217" s="10"/>
       <c r="I217" s="10"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="10"/>
       <c r="B218" s="10" t="s">
         <v>21</v>
@@ -15830,7 +15857,7 @@
       <c r="H218" s="10"/>
       <c r="I218" s="10"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="10"/>
       <c r="B219" s="10" t="s">
         <v>21</v>
@@ -15853,7 +15880,7 @@
       </c>
       <c r="I219" s="10"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="10"/>
       <c r="B220" s="10" t="s">
         <v>21</v>
@@ -15876,7 +15903,7 @@
       </c>
       <c r="I220" s="10"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="10"/>
       <c r="B221" s="10" t="s">
         <v>21</v>
@@ -15899,7 +15926,7 @@
       </c>
       <c r="I221" s="10"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="10"/>
       <c r="B222" s="10" t="s">
         <v>21</v>
@@ -15922,7 +15949,7 @@
       </c>
       <c r="I222" s="10"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="10"/>
       <c r="B223" s="10" t="s">
         <v>21</v>
@@ -15945,7 +15972,7 @@
       </c>
       <c r="I223" s="10"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="10"/>
       <c r="B224" s="10" t="s">
         <v>21</v>
@@ -15968,7 +15995,7 @@
       </c>
       <c r="I224" s="10"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="10"/>
       <c r="B225" s="10" t="s">
         <v>21</v>
@@ -15991,7 +16018,7 @@
       </c>
       <c r="I225" s="10"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="10"/>
       <c r="B226" s="10" t="s">
         <v>21</v>
@@ -16014,7 +16041,7 @@
       </c>
       <c r="I226" s="10"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="10"/>
       <c r="B227" s="10" t="s">
         <v>21</v>
@@ -16037,7 +16064,7 @@
       </c>
       <c r="I227" s="10"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="10"/>
       <c r="B228" s="10" t="s">
         <v>21</v>
@@ -16060,7 +16087,7 @@
       </c>
       <c r="I228" s="10"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="10"/>
       <c r="B229" s="10" t="s">
         <v>21</v>
@@ -16083,7 +16110,7 @@
       </c>
       <c r="I229" s="10"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="10"/>
       <c r="B230" s="10" t="s">
         <v>21</v>
@@ -16106,7 +16133,7 @@
       </c>
       <c r="I230" s="10"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="10"/>
       <c r="B231" s="10" t="s">
         <v>21</v>
@@ -16129,7 +16156,7 @@
       </c>
       <c r="I231" s="10"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="10"/>
       <c r="B232" s="10" t="s">
         <v>21</v>
@@ -16152,7 +16179,7 @@
       </c>
       <c r="I232" s="10"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="10"/>
       <c r="B233" s="10" t="s">
         <v>21</v>
@@ -16175,7 +16202,7 @@
       </c>
       <c r="I233" s="10"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="10" t="b">
         <v>0</v>
       </c>
@@ -16194,7 +16221,7 @@
       <c r="H234" s="10"/>
       <c r="I234" s="10"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="10"/>
       <c r="B235" s="10" t="s">
         <v>21</v>
@@ -16215,7 +16242,7 @@
       <c r="H235" s="10"/>
       <c r="I235" s="10"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="10"/>
       <c r="B236" s="10" t="s">
         <v>21</v>
@@ -16238,7 +16265,7 @@
       </c>
       <c r="I236" s="10"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="10"/>
       <c r="B237" s="10" t="s">
         <v>21</v>
@@ -16261,7 +16288,7 @@
       </c>
       <c r="I237" s="10"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
         <v>21</v>
@@ -16284,7 +16311,7 @@
       </c>
       <c r="I238" s="10"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="10"/>
       <c r="B239" s="10" t="s">
         <v>21</v>
@@ -16307,7 +16334,7 @@
       </c>
       <c r="I239" s="10"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="10"/>
       <c r="B240" s="10" t="s">
         <v>21</v>
@@ -16330,7 +16357,7 @@
       </c>
       <c r="I240" s="10"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="10"/>
       <c r="B241" s="10" t="s">
         <v>21</v>
@@ -16353,7 +16380,7 @@
       </c>
       <c r="I241" s="10"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
         <v>21</v>
@@ -16376,7 +16403,7 @@
       </c>
       <c r="I242" s="10"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="10"/>
       <c r="B243" s="10" t="s">
         <v>21</v>
@@ -16399,7 +16426,7 @@
       </c>
       <c r="I243" s="10"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="10"/>
       <c r="B244" s="10" t="s">
         <v>21</v>
@@ -16422,7 +16449,7 @@
       </c>
       <c r="I244" s="10"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="10"/>
       <c r="B245" s="10" t="s">
         <v>21</v>
@@ -16445,7 +16472,7 @@
       </c>
       <c r="I245" s="10"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="10"/>
       <c r="B246" s="10" t="s">
         <v>21</v>
@@ -16468,7 +16495,7 @@
       </c>
       <c r="I246" s="10"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
         <v>21</v>
@@ -16491,7 +16518,7 @@
       </c>
       <c r="I247" s="10"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="10"/>
       <c r="B248" s="10" t="s">
         <v>21</v>
@@ -16514,7 +16541,7 @@
       </c>
       <c r="I248" s="10"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="10"/>
       <c r="B249" s="10" t="s">
         <v>21</v>
@@ -16537,7 +16564,7 @@
       </c>
       <c r="I249" s="10"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="10"/>
       <c r="B250" s="10" t="s">
         <v>21</v>
@@ -16560,7 +16587,7 @@
       </c>
       <c r="I250" s="10"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="10" t="b">
         <v>0</v>
       </c>
@@ -16579,7 +16606,7 @@
       <c r="H251" s="10"/>
       <c r="I251" s="10"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="10"/>
       <c r="B252" s="10" t="s">
         <v>21</v>
@@ -16604,7 +16631,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
         <v>21</v>
@@ -16627,7 +16654,7 @@
       </c>
       <c r="I253" s="10"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="10"/>
       <c r="B254" s="10" t="s">
         <v>21</v>
@@ -16650,7 +16677,7 @@
       </c>
       <c r="I254" s="10"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="10"/>
       <c r="B255" s="10" t="s">
         <v>21</v>
@@ -16673,7 +16700,7 @@
       </c>
       <c r="I255" s="10"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="10"/>
       <c r="B256" s="10" t="s">
         <v>21</v>
@@ -16696,7 +16723,7 @@
       </c>
       <c r="I256" s="10"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="10" t="b">
         <v>0</v>
       </c>
@@ -16715,7 +16742,7 @@
       <c r="H257" s="10"/>
       <c r="I257" s="10"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="10"/>
       <c r="B258" s="10" t="s">
         <v>21</v>
@@ -16740,7 +16767,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="10"/>
       <c r="B259" s="10" t="s">
         <v>21</v>
@@ -16763,7 +16790,7 @@
       </c>
       <c r="I259" s="10"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="10" t="b">
         <v>0</v>
       </c>
@@ -16782,7 +16809,7 @@
       <c r="H260" s="10"/>
       <c r="I260" s="10"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="10" t="b">
         <v>0</v>
       </c>
@@ -16801,7 +16828,7 @@
       <c r="H261" s="10"/>
       <c r="I261" s="10"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="10" t="b">
         <v>0</v>
       </c>
@@ -16820,7 +16847,7 @@
       <c r="H262" s="10"/>
       <c r="I262" s="10"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
         <v>21</v>
@@ -16841,7 +16868,7 @@
       <c r="H263" s="10"/>
       <c r="I263" s="10"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="10"/>
       <c r="B264" s="10" t="s">
         <v>21</v>
@@ -16864,7 +16891,7 @@
       </c>
       <c r="I264" s="10"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="10"/>
       <c r="B265" s="10" t="s">
         <v>21</v>
@@ -16887,7 +16914,7 @@
       </c>
       <c r="I265" s="10"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="10"/>
       <c r="B266" s="10" t="s">
         <v>21</v>
@@ -16910,7 +16937,7 @@
       </c>
       <c r="I266" s="10"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="10"/>
       <c r="B267" s="10" t="s">
         <v>21</v>
@@ -16933,7 +16960,7 @@
       </c>
       <c r="I267" s="10"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="10"/>
       <c r="B268" s="10" t="s">
         <v>21</v>
@@ -16956,7 +16983,7 @@
       </c>
       <c r="I268" s="10"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="10"/>
       <c r="B269" s="10" t="s">
         <v>21</v>
@@ -16979,7 +17006,7 @@
       </c>
       <c r="I269" s="10"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="10"/>
       <c r="B270" s="10" t="s">
         <v>21</v>
@@ -17002,7 +17029,7 @@
       </c>
       <c r="I270" s="10"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="10"/>
       <c r="B271" s="10" t="s">
         <v>21</v>
@@ -17025,7 +17052,7 @@
       </c>
       <c r="I271" s="10"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="10"/>
       <c r="B272" s="10" t="s">
         <v>21</v>
@@ -17048,7 +17075,7 @@
       </c>
       <c r="I272" s="10"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="10"/>
       <c r="B273" s="10" t="s">
         <v>21</v>
@@ -17071,7 +17098,7 @@
       </c>
       <c r="I273" s="10"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="10" t="b">
         <v>0</v>
       </c>
@@ -17090,7 +17117,7 @@
       <c r="H274" s="10"/>
       <c r="I274" s="10"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="10"/>
       <c r="B275" s="10" t="s">
         <v>21</v>
@@ -17113,7 +17140,7 @@
       </c>
       <c r="I275" s="10"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="10" t="b">
         <v>0</v>
       </c>
@@ -17132,7 +17159,7 @@
       <c r="H276" s="10"/>
       <c r="I276" s="10"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="10"/>
       <c r="B277" s="10" t="s">
         <v>21</v>
@@ -17157,7 +17184,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="10"/>
       <c r="B278" s="10" t="s">
         <v>21</v>
@@ -17180,7 +17207,7 @@
       </c>
       <c r="I278" s="10"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="10"/>
       <c r="B279" s="10" t="s">
         <v>21</v>
@@ -17203,7 +17230,7 @@
       </c>
       <c r="I279" s="10"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="10"/>
       <c r="B280" s="10" t="s">
         <v>21</v>
@@ -17226,7 +17253,7 @@
       </c>
       <c r="I280" s="10"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="10"/>
       <c r="B281" s="10" t="s">
         <v>21</v>
@@ -17249,7 +17276,7 @@
       </c>
       <c r="I281" s="10"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="10"/>
       <c r="B282" s="10" t="s">
         <v>21</v>
@@ -17272,7 +17299,7 @@
       </c>
       <c r="I282" s="10"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="10"/>
       <c r="B283" s="10" t="s">
         <v>21</v>
@@ -17295,7 +17322,7 @@
       </c>
       <c r="I283" s="10"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="10"/>
       <c r="B284" s="10" t="s">
         <v>21</v>
@@ -17318,7 +17345,7 @@
       </c>
       <c r="I284" s="10"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="10"/>
       <c r="B285" s="10" t="s">
         <v>21</v>
@@ -17341,7 +17368,7 @@
       </c>
       <c r="I285" s="10"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="10"/>
       <c r="B286" s="10" t="s">
         <v>21</v>
@@ -17364,7 +17391,7 @@
       </c>
       <c r="I286" s="10"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="10"/>
       <c r="B287" s="10" t="s">
         <v>21</v>
@@ -17387,7 +17414,7 @@
       </c>
       <c r="I287" s="10"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="10" t="b">
         <v>0</v>
       </c>
@@ -17406,7 +17433,7 @@
       <c r="H288" s="10"/>
       <c r="I288" s="10"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="10"/>
       <c r="B289" s="10" t="s">
         <v>21</v>
@@ -17429,7 +17456,7 @@
       </c>
       <c r="I289" s="10"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="10" t="b">
         <v>0</v>
       </c>
@@ -17448,7 +17475,7 @@
       <c r="H290" s="10"/>
       <c r="I290" s="10"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="10"/>
       <c r="B291" s="10" t="s">
         <v>21</v>
@@ -17469,7 +17496,7 @@
       <c r="H291" s="10"/>
       <c r="I291" s="10"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="10" t="b">
         <v>0</v>
       </c>
@@ -17488,7 +17515,7 @@
       <c r="H292" s="10"/>
       <c r="I292" s="10"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="10"/>
       <c r="B293" s="10" t="s">
         <v>21</v>
@@ -17509,7 +17536,7 @@
       <c r="H293" s="10"/>
       <c r="I293" s="10"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="10" t="b">
         <v>0</v>
       </c>
@@ -17528,7 +17555,7 @@
       <c r="H294" s="10"/>
       <c r="I294" s="10"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="10"/>
       <c r="B295" s="10" t="s">
         <v>21</v>
@@ -17549,7 +17576,7 @@
       <c r="H295" s="10"/>
       <c r="I295" s="10"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="10" t="b">
         <v>0</v>
       </c>
@@ -17568,7 +17595,7 @@
       <c r="H296" s="10"/>
       <c r="I296" s="10"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="10"/>
       <c r="B297" s="10" t="s">
         <v>21</v>
@@ -17591,7 +17618,7 @@
       </c>
       <c r="I297" s="10"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="10" t="b">
         <v>0</v>
       </c>
@@ -17610,7 +17637,7 @@
       <c r="H298" s="10"/>
       <c r="I298" s="10"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="10"/>
       <c r="B299" s="10" t="s">
         <v>21</v>
@@ -17635,7 +17662,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="10"/>
       <c r="B300" s="10" t="s">
         <v>21</v>
@@ -17658,7 +17685,7 @@
       </c>
       <c r="I300" s="10"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="10"/>
       <c r="B301" s="10" t="s">
         <v>21</v>
@@ -17681,7 +17708,7 @@
       </c>
       <c r="I301" s="10"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="10"/>
       <c r="B302" s="10" t="s">
         <v>21</v>
@@ -17704,7 +17731,7 @@
       </c>
       <c r="I302" s="10"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="10"/>
       <c r="B303" s="10" t="s">
         <v>21</v>
@@ -17727,7 +17754,7 @@
       </c>
       <c r="I303" s="10"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="10"/>
       <c r="B304" s="10" t="s">
         <v>21</v>
@@ -17750,7 +17777,7 @@
       </c>
       <c r="I304" s="10"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="10"/>
       <c r="B305" s="10" t="s">
         <v>21</v>
@@ -17773,7 +17800,7 @@
       </c>
       <c r="I305" s="10"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="10"/>
       <c r="B306" s="10" t="s">
         <v>21</v>
@@ -17796,7 +17823,7 @@
       </c>
       <c r="I306" s="10"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="10"/>
       <c r="B307" s="10" t="s">
         <v>21</v>
@@ -17819,7 +17846,7 @@
       </c>
       <c r="I307" s="10"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="10" t="b">
         <v>0</v>
       </c>
@@ -17838,7 +17865,7 @@
       <c r="H308" s="10"/>
       <c r="I308" s="10"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="10"/>
       <c r="B309" s="10" t="s">
         <v>21</v>
@@ -17861,7 +17888,7 @@
       </c>
       <c r="I309" s="10"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="10"/>
       <c r="B310" s="10" t="s">
         <v>21</v>
@@ -17884,7 +17911,7 @@
       </c>
       <c r="I310" s="10"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="10"/>
       <c r="B311" s="10" t="s">
         <v>21</v>
@@ -17907,7 +17934,7 @@
       </c>
       <c r="I311" s="10"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="10"/>
       <c r="B312" s="10" t="s">
         <v>21</v>
@@ -17930,7 +17957,7 @@
       </c>
       <c r="I312" s="10"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="10" t="b">
         <v>0</v>
       </c>
@@ -17949,7 +17976,7 @@
       <c r="H313" s="10"/>
       <c r="I313" s="10"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="10"/>
       <c r="B314" s="10" t="s">
         <v>21</v>
@@ -17972,7 +17999,7 @@
       </c>
       <c r="I314" s="10"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="10"/>
       <c r="B315" s="10" t="s">
         <v>21</v>
@@ -17995,7 +18022,7 @@
       </c>
       <c r="I315" s="10"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="10"/>
       <c r="B316" s="10" t="s">
         <v>21</v>
@@ -18020,7 +18047,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="10" t="b">
         <v>0</v>
       </c>
@@ -18039,7 +18066,7 @@
       <c r="H317" s="10"/>
       <c r="I317" s="10"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="10"/>
       <c r="B318" s="10" t="s">
         <v>21</v>
@@ -18064,7 +18091,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="10"/>
       <c r="B319" s="10" t="s">
         <v>21</v>
@@ -18087,7 +18114,7 @@
       </c>
       <c r="I319" s="10"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="10" t="b">
         <v>0</v>
       </c>
@@ -18106,7 +18133,7 @@
       <c r="H320" s="10"/>
       <c r="I320" s="10"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="10"/>
       <c r="B321" s="10" t="s">
         <v>21</v>
@@ -18127,7 +18154,7 @@
       <c r="H321" s="10"/>
       <c r="I321" s="10"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="10"/>
       <c r="B322" s="10" t="s">
         <v>21</v>
@@ -18148,7 +18175,7 @@
       <c r="H322" s="10"/>
       <c r="I322" s="10"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="10"/>
       <c r="B323" s="10" t="s">
         <v>21</v>
@@ -18171,7 +18198,7 @@
       </c>
       <c r="I323" s="10"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="10" t="b">
         <v>0</v>
       </c>
@@ -18190,7 +18217,7 @@
       <c r="H324" s="10"/>
       <c r="I324" s="10"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="10" t="b">
         <v>0</v>
       </c>
@@ -18209,7 +18236,7 @@
       <c r="H325" s="10"/>
       <c r="I325" s="10"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="10"/>
       <c r="B326" s="10" t="s">
         <v>21</v>
@@ -18234,7 +18261,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="10"/>
       <c r="B327" s="10" t="s">
         <v>21</v>
@@ -18259,7 +18286,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18273,7 +18300,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18296,7 +18323,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18316,7 +18343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18336,7 +18363,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18356,7 +18383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18373,7 +18400,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18396,7 +18423,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18419,7 +18446,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18433,7 +18460,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18456,7 +18483,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18479,7 +18506,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18499,7 +18526,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18519,7 +18546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18536,7 +18563,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18562,7 +18589,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18591,7 +18618,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15">
+    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344" s="10"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18630,7 +18657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18644,7 +18671,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18664,7 +18691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18678,7 +18705,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18698,7 +18725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18718,7 +18745,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18738,7 +18765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18758,7 +18785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18778,7 +18805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18798,7 +18825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18818,7 +18845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18838,7 +18865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18858,7 +18885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18872,7 +18899,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18892,7 +18919,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18912,7 +18939,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1">
+    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18928,7 +18955,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1">
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -18954,7 +18981,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A362" s="10"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18995,7 +19022,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -19009,7 +19036,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -19029,7 +19056,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -19043,7 +19070,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19076,23 +19103,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E12"/>
+    <sheetView topLeftCell="F9" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.5" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -19109,7 +19136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="22" customFormat="1">
+    <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>643</v>
       </c>
@@ -19126,7 +19153,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="22" customFormat="1">
+    <row r="3" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>593</v>
       </c>
@@ -19143,7 +19170,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="22" customFormat="1">
+    <row r="4" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>595</v>
       </c>
@@ -19160,7 +19187,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="22" customFormat="1">
+    <row r="5" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>597</v>
       </c>
@@ -19177,7 +19204,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="22" customFormat="1">
+    <row r="6" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>599</v>
       </c>
@@ -19194,7 +19221,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="22" customFormat="1">
+    <row r="7" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>601</v>
       </c>
@@ -19211,7 +19238,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="22" customFormat="1">
+    <row r="8" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>440</v>
       </c>
@@ -19228,7 +19255,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="22" customFormat="1">
+    <row r="9" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>604</v>
       </c>
@@ -19245,7 +19272,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>606</v>
       </c>
@@ -19262,7 +19289,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="22" customFormat="1">
+    <row r="11" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>722</v>
       </c>
@@ -19279,7 +19306,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="22" customFormat="1">
+    <row r="12" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>725</v>
       </c>
@@ -19296,9 +19323,9 @@
         <v>656</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="22" customFormat="1"/>
-    <row r="14" spans="1:7" s="22" customFormat="1"/>
-    <row r="15" spans="1:7">
+    <row r="13" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>573</v>
       </c>
@@ -19312,7 +19339,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>456</v>
       </c>
@@ -19326,7 +19353,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>454</v>
       </c>
@@ -19337,8 +19364,8 @@
         <v>547</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="22" customFormat="1"/>
-    <row r="20" spans="1:21">
+    <row r="18" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>551</v>
       </c>
@@ -19363,8 +19390,14 @@
       <c r="U20" s="22" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="X20" t="s">
+        <v>743</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>552</v>
       </c>
@@ -19404,8 +19437,17 @@
       <c r="Q21" s="22" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="AA21" s="22" t="s">
+        <v>745</v>
+      </c>
+      <c r="AB21" s="22">
+        <v>30</v>
+      </c>
+      <c r="AC21" s="22" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -19446,7 +19488,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>545</v>
       </c>
@@ -19478,7 +19520,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>554</v>
       </c>
@@ -19510,7 +19552,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>553</v>
       </c>
@@ -19539,7 +19581,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>555</v>
       </c>
@@ -19571,10 +19613,19 @@
         <v>589</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>556</v>
       </c>
+      <c r="I27" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="J27" s="23">
+        <v>0</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>747</v>
+      </c>
       <c r="L27" s="1" t="s">
         <v>546</v>
       </c>
@@ -19591,7 +19642,10 @@
         <v>543</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>743</v>
+      </c>
       <c r="L28" s="1" t="s">
         <v>561</v>
       </c>
@@ -19611,7 +19665,10 @@
         <v>577</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>744</v>
+      </c>
       <c r="L29" s="1" t="s">
         <v>562</v>
       </c>
@@ -19621,8 +19678,17 @@
       <c r="N29" s="22" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="O29" t="s">
+        <v>746</v>
+      </c>
+      <c r="P29" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="23" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="L30" s="1" t="s">
         <v>542</v>
       </c>
@@ -19630,7 +19696,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="L31" s="1" t="s">
         <v>544</v>
       </c>
@@ -19641,9 +19707,20 @@
         <v>577</v>
       </c>
     </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="L32" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="M32" s="23">
+        <v>0</v>
+      </c>
+      <c r="N32" s="23" t="s">
+        <v>747</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/projects/template_nsga.xlsx
+++ b/projects/template_nsga.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="747">
   <si>
     <t>type</t>
   </si>
@@ -1939,9 +1939,6 @@
   </si>
   <si>
     <t>integer</t>
-  </si>
-  <si>
-    <t>Temp</t>
   </si>
   <si>
     <t>Total Natural Gas Intensity</t>
@@ -5880,8 +5877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5919,7 +5916,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5941,7 +5938,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>616</v>
@@ -6013,28 +6010,28 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="24" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E9" s="24" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
         <v>$1.96/hour</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
+        <v>726</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>727</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>728</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -6052,7 +6049,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>473</v>
@@ -6063,7 +6060,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>617</v>
@@ -6099,7 +6096,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -6143,7 +6140,7 @@
         <v>453</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -6172,138 +6169,142 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
-        <v>epsilonGradient</v>
+        <v>Number of Samples</v>
       </c>
       <c r="B25" s="18">
         <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
-        <v>0.01</v>
+        <v>50</v>
       </c>
       <c r="C25" s="25" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
-        <v>epsilon in gradient calculation</v>
-      </c>
-      <c r="D25" s="27"/>
+        <v>Size of initial population</v>
+      </c>
+      <c r="D25" s="27">
+        <v>50</v>
+      </c>
       <c r="E25" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
-        <v>pgtol</v>
+        <v>Generations</v>
       </c>
       <c r="B26" s="18">
         <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="C26" s="25" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
-        <v>tolerance on the projected gradient</v>
-      </c>
-      <c r="D26" s="27"/>
+        <v>Number of generations</v>
+      </c>
+      <c r="D26" s="27">
+        <v>10</v>
+      </c>
       <c r="E26" s="23"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
-        <v>factr</v>
+        <v>cprob</v>
       </c>
       <c r="B27" s="18">
         <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
-        <v>45036000000000</v>
+        <v>0.85</v>
       </c>
       <c r="C27" s="25" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
-        <v>Tolerance on delta_F</v>
+        <v>Crossover probability [0,1]</v>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="23"/>
     </row>
-    <row r="28" spans="1:6" s="23" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
-        <v>maxit</v>
+        <v>XoverDistIdx</v>
       </c>
       <c r="B28" s="18">
         <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="C28" s="25" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
-        <v>Maximum number of iterations</v>
+        <v>Crossover Distribution Index (large values give higher probabilities of offspring close to parent)</v>
       </c>
       <c r="D28" s="27"/>
     </row>
-    <row r="29" spans="1:6" s="23" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
-        <v>normType</v>
-      </c>
-      <c r="B29" s="18" t="str">
+        <v>MuDistIdx</v>
+      </c>
+      <c r="B29" s="18">
         <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
-        <v>minkowski</v>
+        <v>2</v>
       </c>
       <c r="C29" s="25" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
-        <v/>
+        <v>Mutation Distribution Index (large values give higher probabilities of offspring close to parent)</v>
       </c>
       <c r="D29" s="27"/>
     </row>
     <row r="30" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
-        <v>pPower</v>
+        <v>mprob</v>
       </c>
       <c r="B30" s="18">
         <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="C30" s="25" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
-        <v>Lp norm power</v>
+        <v>Mutation probability [0,1]</v>
       </c>
       <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
-        <v>Exit On Guideline14</v>
-      </c>
-      <c r="B31" s="18">
+        <v>normType</v>
+      </c>
+      <c r="B31" s="18" t="str">
         <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
-        <v>0</v>
+        <v>minkowski</v>
       </c>
       <c r="C31" s="25" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
-        <v>0 false / 1 true (for use with calibration report)</v>
+        <v/>
       </c>
       <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B32" s="18" t="str">
+        <v>pPower</v>
+      </c>
+      <c r="B32" s="18">
         <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="C32" s="25" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
-        <v/>
+        <v>Lp norm power</v>
       </c>
       <c r="D32" s="27"/>
     </row>
     <row r="33" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B33" s="18" t="str">
+        <v>Exit On Guideline14</v>
+      </c>
+      <c r="B33" s="18">
         <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C33" s="25" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
-        <v/>
+        <v>0 false / 1 true (for use with calibration report)</v>
       </c>
       <c r="D33" s="27"/>
     </row>
@@ -6373,7 +6374,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6399,19 +6400,19 @@
         <v>32</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>35</v>
       </c>
@@ -6429,18 +6430,18 @@
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>730</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="C46" s="6" t="s">
         <v>731</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>732</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="8" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6455,18 +6456,18 @@
     </row>
     <row r="49" spans="1:6" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>734</v>
       </c>
-      <c r="B49" s="19" t="s">
-        <v>735</v>
-      </c>
       <c r="C49" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
   </sheetData>
@@ -6619,7 +6620,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>11</v>
@@ -6765,7 +6766,7 @@
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>46</v>
@@ -7117,7 +7118,7 @@
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>75</v>
@@ -7203,7 +7204,7 @@
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E17" s="46" t="s">
         <v>258</v>
@@ -7233,7 +7234,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
@@ -7403,7 +7404,7 @@
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E22" s="46" t="s">
         <v>258</v>
@@ -7431,10 +7432,10 @@
       </c>
       <c r="O22" s="42"/>
       <c r="P22" s="42" t="s">
+        <v>713</v>
+      </c>
+      <c r="Q22" s="42" t="s">
         <v>714</v>
-      </c>
-      <c r="Q22" s="42" t="s">
-        <v>715</v>
       </c>
       <c r="R22" s="42" t="s">
         <v>24</v>
@@ -7567,7 +7568,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>76</v>
@@ -7607,7 +7608,7 @@
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E27" s="46" t="s">
         <v>77</v>
@@ -7731,7 +7732,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>76</v>
@@ -7771,7 +7772,7 @@
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>77</v>
@@ -7868,7 +7869,7 @@
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>84</v>
@@ -7935,13 +7936,13 @@
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="42" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G35" s="42" t="s">
         <v>64</v>
@@ -8075,7 +8076,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
@@ -9923,9 +9924,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9940,9 +9941,9 @@
     <col min="8" max="8" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" style="1" customWidth="1"/>
     <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
@@ -9968,7 +9969,7 @@
         <v>461</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>620</v>
@@ -10007,7 +10008,7 @@
         <v>627</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>628</v>
@@ -10037,22 +10038,20 @@
       <c r="L3" s="35" t="s">
         <v>632</v>
       </c>
-      <c r="M3" s="35" t="s">
-        <v>633</v>
-      </c>
+      <c r="M3" s="35"/>
     </row>
     <row r="4" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>698</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>699</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="15" t="s">
         <v>635</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>636</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>470</v>
@@ -10078,16 +10077,16 @@
     </row>
     <row r="5" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>637</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>700</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="15" t="s">
         <v>638</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>639</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>470</v>
@@ -10107,21 +10106,23 @@
       <c r="J5" s="15">
         <v>590</v>
       </c>
-      <c r="K5" s="15"/>
+      <c r="K5" s="15">
+        <v>5</v>
+      </c>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
     <row r="6" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>64</v>
@@ -10142,15 +10143,15 @@
     </row>
     <row r="7" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>64</v>
@@ -10171,15 +10172,15 @@
     </row>
     <row r="8" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>64</v>
@@ -10200,21 +10201,21 @@
     </row>
     <row r="9" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>64</v>
       </c>
       <c r="G9" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="15" t="b">
         <v>1</v>
@@ -10229,12 +10230,12 @@
     </row>
     <row r="10" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>470</v>
@@ -10258,12 +10259,12 @@
     </row>
     <row r="11" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>470</v>
@@ -10287,12 +10288,12 @@
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>470</v>
@@ -10316,12 +10317,12 @@
     </row>
     <row r="13" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>470</v>
@@ -10345,12 +10346,12 @@
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>470</v>
@@ -10374,12 +10375,12 @@
     </row>
     <row r="15" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>470</v>
@@ -10403,12 +10404,12 @@
     </row>
     <row r="16" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>470</v>
@@ -10432,12 +10433,12 @@
     </row>
     <row r="17" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>470</v>
@@ -10461,12 +10462,12 @@
     </row>
     <row r="18" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>470</v>
@@ -10490,12 +10491,12 @@
     </row>
     <row r="19" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>470</v>
@@ -10519,12 +10520,12 @@
     </row>
     <row r="20" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>470</v>
@@ -10548,12 +10549,12 @@
     </row>
     <row r="21" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>470</v>
@@ -10577,12 +10578,12 @@
     </row>
     <row r="22" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>470</v>
@@ -10606,12 +10607,12 @@
     </row>
     <row r="23" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>470</v>
@@ -10635,21 +10636,21 @@
     </row>
     <row r="24" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>696</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>697</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>64</v>
       </c>
       <c r="G24" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="15" t="b">
         <v>1</v>
@@ -19130,7 +19131,7 @@
         <v>439</v>
       </c>
       <c r="D1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -19138,19 +19139,19 @@
     </row>
     <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
+        <v>642</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>643</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="22" t="s">
         <v>644</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>645</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>646</v>
-      </c>
       <c r="E2" s="22" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -19164,10 +19165,10 @@
         <v>594</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -19181,10 +19182,10 @@
         <v>596</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -19198,10 +19199,10 @@
         <v>598</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -19215,10 +19216,10 @@
         <v>600</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -19232,10 +19233,10 @@
         <v>602</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -19249,10 +19250,10 @@
         <v>603</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -19266,10 +19267,10 @@
         <v>605</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -19277,50 +19278,50 @@
         <v>606</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>607</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>446</v>
       </c>
       <c r="C11" s="22" t="s">
+        <v>722</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>723</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>724</v>
-      </c>
       <c r="E11" s="22" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -19391,10 +19392,10 @@
         <v>556</v>
       </c>
       <c r="X20" t="s">
+        <v>742</v>
+      </c>
+      <c r="AA20" t="s">
         <v>743</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
@@ -19438,7 +19439,7 @@
         <v>583</v>
       </c>
       <c r="AA21" s="22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AB21" s="22">
         <v>30</v>
@@ -19618,13 +19619,13 @@
         <v>556</v>
       </c>
       <c r="I27" s="22" t="s">
+        <v>745</v>
+      </c>
+      <c r="J27" s="23">
+        <v>0</v>
+      </c>
+      <c r="K27" s="23" t="s">
         <v>746</v>
-      </c>
-      <c r="J27" s="23">
-        <v>0</v>
-      </c>
-      <c r="K27" s="23" t="s">
-        <v>747</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>546</v>
@@ -19644,7 +19645,7 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>561</v>
@@ -19667,7 +19668,7 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>562</v>
@@ -19679,13 +19680,13 @@
         <v>578</v>
       </c>
       <c r="O29" t="s">
+        <v>745</v>
+      </c>
+      <c r="P29" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="23" t="s">
         <v>746</v>
-      </c>
-      <c r="P29" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="23" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
@@ -19709,13 +19710,13 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="L32" s="22" t="s">
+        <v>745</v>
+      </c>
+      <c r="M32" s="23">
+        <v>0</v>
+      </c>
+      <c r="N32" s="23" t="s">
         <v>746</v>
-      </c>
-      <c r="M32" s="23">
-        <v>0</v>
-      </c>
-      <c r="N32" s="23" t="s">
-        <v>747</v>
       </c>
     </row>
   </sheetData>
